--- a/Dekauto.Export.Service/УЧЕБНАЯ_КАРТОЧКА_студента.xlsx
+++ b/Dekauto.Export.Service/УЧЕБНАЯ_КАРТОЧКА_студента.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dekauto\Export\Dekauto.Export.Service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BF3DE8-9AC1-4838-AE4D-EB056499A509}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183D6566-4455-4186-9AA5-3DE87EF7CCF2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="19152" windowHeight="8472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -671,7 +671,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="450">
   <si>
     <t>Фамилия:</t>
   </si>
@@ -1343,9 +1343,6 @@
   </si>
   <si>
     <t>Информатика</t>
-  </si>
-  <si>
-    <t>деревня</t>
   </si>
   <si>
     <t>Тип_населённого_пункта</t>
@@ -3190,6 +3187,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3421,9 +3421,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3839,8 +3836,8 @@
   </sheetPr>
   <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3857,70 +3854,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="250"/>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
+      <c r="A1" s="251"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
     </row>
     <row r="2" spans="1:10" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="251" t="s">
-        <v>396</v>
-      </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
+      <c r="A2" s="252" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="252"/>
+      <c r="C2" s="252"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="252"/>
+      <c r="F2" s="252"/>
+      <c r="G2" s="252"/>
+      <c r="H2" s="252"/>
+      <c r="I2" s="252"/>
+      <c r="J2" s="252"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="252"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="253" t="s">
-        <v>312</v>
-      </c>
-      <c r="F3" s="253"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="255"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="254" t="s">
+        <v>311</v>
+      </c>
+      <c r="F3" s="254"/>
+      <c r="G3" s="256"/>
+      <c r="H3" s="256"/>
+      <c r="I3" s="256"/>
+      <c r="J3" s="256"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="252"/>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="254" t="s">
-        <v>313</v>
-      </c>
-      <c r="F4" s="254"/>
-      <c r="G4" s="255"/>
-      <c r="H4" s="255"/>
-      <c r="I4" s="255"/>
-      <c r="J4" s="255"/>
+      <c r="B4" s="253"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="255" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" s="255"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="252"/>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
+      <c r="B5" s="253"/>
+      <c r="C5" s="253"/>
+      <c r="D5" s="253"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -3935,9 +3932,9 @@
         <v>4</v>
       </c>
       <c r="D6" s="214"/>
-      <c r="E6" s="315"/>
-      <c r="F6" s="315"/>
-      <c r="G6" s="315"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="237"/>
+      <c r="G6" s="237"/>
       <c r="H6" s="214" t="s">
         <v>7</v>
       </c>
@@ -3958,7 +3955,7 @@
     </row>
     <row r="8" spans="1:10" s="66" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="93" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B8" s="98"/>
       <c r="C8" s="98"/>
@@ -3975,16 +3972,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="120"/>
-      <c r="C9" s="237"/>
-      <c r="D9" s="237"/>
-      <c r="E9" s="237"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="238"/>
       <c r="F9" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="237"/>
-      <c r="H9" s="237"/>
-      <c r="I9" s="237"/>
-      <c r="J9" s="237"/>
+      <c r="G9" s="238"/>
+      <c r="H9" s="238"/>
+      <c r="I9" s="238"/>
+      <c r="J9" s="238"/>
     </row>
     <row r="10" spans="1:10" s="66" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="119" t="s">
@@ -4000,23 +3997,23 @@
       </c>
       <c r="F10" s="144"/>
       <c r="G10" s="52"/>
-      <c r="H10" s="238" t="s">
+      <c r="H10" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="238"/>
-      <c r="J10" s="238"/>
+      <c r="I10" s="239"/>
+      <c r="J10" s="239"/>
     </row>
     <row r="11" spans="1:10" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="239"/>
-      <c r="B11" s="239"/>
-      <c r="C11" s="239"/>
-      <c r="D11" s="239"/>
-      <c r="E11" s="239"/>
-      <c r="F11" s="239"/>
-      <c r="G11" s="239"/>
-      <c r="H11" s="239"/>
-      <c r="I11" s="239"/>
-      <c r="J11" s="239"/>
+      <c r="A11" s="240"/>
+      <c r="B11" s="240"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="240"/>
+      <c r="E11" s="240"/>
+      <c r="F11" s="240"/>
+      <c r="G11" s="240"/>
+      <c r="H11" s="240"/>
+      <c r="I11" s="240"/>
+      <c r="J11" s="240"/>
     </row>
     <row r="12" spans="1:10" s="66" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="98" t="s">
@@ -4039,23 +4036,23 @@
         <v>22</v>
       </c>
       <c r="B13" s="51"/>
-      <c r="C13" s="240"/>
-      <c r="D13" s="240"/>
-      <c r="E13" s="240"/>
-      <c r="F13" s="240"/>
-      <c r="G13" s="240"/>
-      <c r="H13" s="240"/>
-      <c r="I13" s="240"/>
-      <c r="J13" s="240"/>
+      <c r="C13" s="241"/>
+      <c r="D13" s="241"/>
+      <c r="E13" s="241"/>
+      <c r="F13" s="241"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="241"/>
+      <c r="I13" s="241"/>
+      <c r="J13" s="241"/>
     </row>
     <row r="14" spans="1:10" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="241" t="s">
-        <v>394</v>
-      </c>
-      <c r="B14" s="241"/>
-      <c r="C14" s="241"/>
-      <c r="D14" s="241"/>
-      <c r="E14" s="241"/>
+      <c r="A14" s="242" t="s">
+        <v>393</v>
+      </c>
+      <c r="B14" s="242"/>
+      <c r="C14" s="242"/>
+      <c r="D14" s="242"/>
+      <c r="E14" s="242"/>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
     </row>
@@ -4065,7 +4062,7 @@
       </c>
       <c r="B15" s="124"/>
       <c r="C15" s="214" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D15" s="214"/>
       <c r="E15" s="214"/>
@@ -4083,7 +4080,7 @@
       <c r="C16" s="208"/>
       <c r="D16" s="208"/>
       <c r="E16" s="209" t="s">
-        <v>224</v>
+        <v>336</v>
       </c>
       <c r="F16" s="209"/>
       <c r="G16" s="215"/>
@@ -4095,15 +4092,15 @@
       <c r="A17" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="242"/>
-      <c r="C17" s="242"/>
-      <c r="D17" s="242"/>
+      <c r="B17" s="243"/>
+      <c r="C17" s="243"/>
+      <c r="D17" s="243"/>
       <c r="E17" s="95" t="s">
         <v>26</v>
       </c>
       <c r="F17" s="147"/>
       <c r="G17" s="100" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H17" s="147"/>
       <c r="I17" s="97" t="s">
@@ -4112,13 +4109,13 @@
       <c r="J17" s="147"/>
     </row>
     <row r="18" spans="1:10" s="66" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="241" t="s">
-        <v>379</v>
-      </c>
-      <c r="B18" s="241"/>
-      <c r="C18" s="241"/>
-      <c r="D18" s="241"/>
-      <c r="E18" s="241"/>
+      <c r="A18" s="242" t="s">
+        <v>378</v>
+      </c>
+      <c r="B18" s="242"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="242"/>
+      <c r="E18" s="242"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -4131,7 +4128,7 @@
       </c>
       <c r="B19" s="124"/>
       <c r="C19" s="214" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D19" s="214"/>
       <c r="E19" s="214"/>
@@ -4149,7 +4146,7 @@
       <c r="C20" s="208"/>
       <c r="D20" s="208"/>
       <c r="E20" s="217" t="s">
-        <v>224</v>
+        <v>336</v>
       </c>
       <c r="F20" s="217"/>
       <c r="G20" s="215"/>
@@ -4169,11 +4166,11 @@
       </c>
       <c r="F21" s="143"/>
       <c r="G21" s="149" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H21" s="143"/>
       <c r="I21" s="57" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J21" s="143"/>
     </row>
@@ -4184,7 +4181,7 @@
       <c r="B22" s="223"/>
       <c r="C22" s="223"/>
       <c r="D22" s="148" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22" s="102"/>
       <c r="F22" s="104"/>
@@ -4195,7 +4192,7 @@
     </row>
     <row r="23" spans="1:10" s="27" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="51" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B23" s="51"/>
     </row>
@@ -4309,7 +4306,7 @@
     </row>
     <row r="32" spans="1:10" s="27" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="207" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B32" s="207"/>
       <c r="C32" s="207"/>
@@ -4322,7 +4319,9 @@
       <c r="J32" s="207"/>
     </row>
     <row r="33" spans="1:12" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="232"/>
+      <c r="A33" s="232" t="s">
+        <v>295</v>
+      </c>
       <c r="B33" s="232"/>
       <c r="C33" s="232"/>
       <c r="D33" s="232"/>
@@ -4343,7 +4342,7 @@
     </row>
     <row r="35" spans="1:12" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="233" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B35" s="233"/>
       <c r="C35" s="233"/>
@@ -4362,16 +4361,16 @@
     </row>
     <row r="36" spans="1:12" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="74"/>
-      <c r="B36" s="276" t="s">
-        <v>376</v>
-      </c>
-      <c r="C36" s="276"/>
-      <c r="D36" s="276"/>
+      <c r="B36" s="277" t="s">
+        <v>375</v>
+      </c>
+      <c r="C36" s="277"/>
+      <c r="D36" s="277"/>
       <c r="E36" s="115" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F36" s="116" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G36" s="116"/>
       <c r="H36" s="68"/>
@@ -4380,7 +4379,7 @@
     </row>
     <row r="37" spans="1:12" s="27" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="73" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B37" s="220"/>
       <c r="C37" s="220"/>
@@ -4418,12 +4417,12 @@
     </row>
     <row r="40" spans="1:12" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="60" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B40" s="55"/>
       <c r="C40" s="59"/>
       <c r="D40" s="217" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E40" s="217"/>
       <c r="F40" s="217"/>
@@ -4433,14 +4432,14 @@
       <c r="J40" s="217"/>
     </row>
     <row r="41" spans="1:12" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="249" t="s">
-        <v>233</v>
-      </c>
-      <c r="B41" s="249"/>
-      <c r="C41" s="249"/>
+      <c r="A41" s="250" t="s">
+        <v>232</v>
+      </c>
+      <c r="B41" s="250"/>
+      <c r="C41" s="250"/>
       <c r="D41" s="209" t="str">
         <f>IF(D40="среднее общее образование","о среднем общем образовании","о среднем профессиональном образовании")</f>
-        <v>о среднем профессиональном образовании</v>
+        <v>о среднем общем образовании</v>
       </c>
       <c r="E41" s="209"/>
       <c r="F41" s="209"/>
@@ -4457,12 +4456,12 @@
       </c>
       <c r="B42" s="197"/>
       <c r="C42" s="109" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D42" s="199"/>
       <c r="E42" s="199"/>
       <c r="F42" s="109" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G42" s="109"/>
       <c r="H42" s="200"/>
@@ -4473,7 +4472,7 @@
     </row>
     <row r="43" spans="1:12" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="236" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B43" s="236"/>
       <c r="C43" s="236"/>
@@ -4487,7 +4486,7 @@
     </row>
     <row r="44" spans="1:12" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="234" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B44" s="234"/>
       <c r="C44" s="206"/>
@@ -4501,7 +4500,7 @@
     </row>
     <row r="45" spans="1:12" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="205" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B45" s="205"/>
       <c r="C45" s="206"/>
@@ -4514,10 +4513,10 @@
       <c r="J45" s="206"/>
     </row>
     <row r="46" spans="1:12" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="248" t="s">
-        <v>356</v>
-      </c>
-      <c r="B46" s="248"/>
+      <c r="A46" s="249" t="s">
+        <v>355</v>
+      </c>
+      <c r="B46" s="249"/>
       <c r="C46" s="69"/>
       <c r="D46" s="69"/>
       <c r="E46" s="69"/>
@@ -4555,7 +4554,7 @@
     </row>
     <row r="49" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="137" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B49" s="137"/>
       <c r="C49" s="137"/>
@@ -4590,7 +4589,7 @@
     </row>
     <row r="51" spans="1:10" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="51" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B51" s="51"/>
     </row>
@@ -4610,7 +4609,7 @@
     </row>
     <row r="53" spans="1:10" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="228" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B53" s="228"/>
       <c r="C53" s="228"/>
@@ -4646,26 +4645,30 @@
     </row>
     <row r="56" spans="1:10" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="203" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B56" s="203"/>
       <c r="D56" s="217"/>
       <c r="E56" s="217"/>
       <c r="F56" s="56" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G56" s="56"/>
       <c r="H56" s="56"/>
       <c r="I56" s="58"/>
-      <c r="J56" s="157"/>
+      <c r="J56" s="157" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="57" spans="1:10" s="66" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A57" s="204" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B57" s="204"/>
       <c r="C57" s="56"/>
-      <c r="D57" s="155"/>
+      <c r="D57" s="155" t="s">
+        <v>15</v>
+      </c>
       <c r="E57" s="52"/>
       <c r="F57" s="52"/>
       <c r="G57" s="52"/>
@@ -4693,7 +4696,9 @@
       </c>
       <c r="B59" s="203"/>
       <c r="C59" s="60"/>
-      <c r="D59" s="156"/>
+      <c r="D59" s="156" t="s">
+        <v>15</v>
+      </c>
       <c r="E59" s="52"/>
       <c r="F59" s="52"/>
       <c r="G59" s="52"/>
@@ -4707,13 +4712,13 @@
       </c>
       <c r="B60" s="203"/>
       <c r="C60" s="60"/>
-      <c r="D60" s="275"/>
-      <c r="E60" s="275"/>
-      <c r="F60" s="275"/>
-      <c r="G60" s="275"/>
-      <c r="H60" s="275"/>
-      <c r="I60" s="275"/>
-      <c r="J60" s="275"/>
+      <c r="D60" s="276"/>
+      <c r="E60" s="276"/>
+      <c r="F60" s="276"/>
+      <c r="G60" s="276"/>
+      <c r="H60" s="276"/>
+      <c r="I60" s="276"/>
+      <c r="J60" s="276"/>
     </row>
     <row r="61" spans="1:10" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="204" t="s">
@@ -4721,13 +4726,13 @@
       </c>
       <c r="B61" s="204"/>
       <c r="C61" s="204"/>
-      <c r="D61" s="275"/>
-      <c r="E61" s="275"/>
-      <c r="F61" s="275"/>
-      <c r="G61" s="275"/>
-      <c r="H61" s="275"/>
-      <c r="I61" s="275"/>
-      <c r="J61" s="275"/>
+      <c r="D61" s="276"/>
+      <c r="E61" s="276"/>
+      <c r="F61" s="276"/>
+      <c r="G61" s="276"/>
+      <c r="H61" s="276"/>
+      <c r="I61" s="276"/>
+      <c r="J61" s="276"/>
     </row>
     <row r="62" spans="1:10" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="204" t="s">
@@ -4745,7 +4750,7 @@
     </row>
     <row r="63" spans="1:10" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="227" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B63" s="227"/>
       <c r="C63" s="227"/>
@@ -4759,7 +4764,7 @@
     </row>
     <row r="64" spans="1:10" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B64" s="209"/>
       <c r="C64" s="209"/>
@@ -4773,12 +4778,12 @@
       </c>
       <c r="B65" s="69"/>
       <c r="C65" s="109" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D65" s="199"/>
       <c r="E65" s="199"/>
       <c r="F65" s="109" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G65" s="109"/>
       <c r="H65" s="200"/>
@@ -4789,7 +4794,7 @@
     </row>
     <row r="66" spans="1:12" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="60" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B66" s="60"/>
       <c r="C66" s="60"/>
@@ -4803,39 +4808,39 @@
     </row>
     <row r="67" spans="1:12" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="226" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B67" s="205"/>
-      <c r="C67" s="256"/>
-      <c r="D67" s="256"/>
-      <c r="E67" s="256"/>
-      <c r="F67" s="256"/>
-      <c r="G67" s="256"/>
-      <c r="H67" s="256"/>
-      <c r="I67" s="256"/>
-      <c r="J67" s="256"/>
+      <c r="C67" s="257"/>
+      <c r="D67" s="257"/>
+      <c r="E67" s="257"/>
+      <c r="F67" s="257"/>
+      <c r="G67" s="257"/>
+      <c r="H67" s="257"/>
+      <c r="I67" s="257"/>
+      <c r="J67" s="257"/>
     </row>
     <row r="68" spans="1:12" s="27" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="226" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B68" s="226"/>
-      <c r="C68" s="264"/>
-      <c r="D68" s="264"/>
-      <c r="E68" s="264"/>
-      <c r="F68" s="264"/>
-      <c r="G68" s="264"/>
-      <c r="H68" s="264"/>
-      <c r="I68" s="264"/>
-      <c r="J68" s="264"/>
+      <c r="C68" s="265"/>
+      <c r="D68" s="265"/>
+      <c r="E68" s="265"/>
+      <c r="F68" s="265"/>
+      <c r="G68" s="265"/>
+      <c r="H68" s="265"/>
+      <c r="I68" s="265"/>
+      <c r="J68" s="265"/>
     </row>
     <row r="69" spans="1:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="233" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B69" s="233"/>
-      <c r="C69" s="271"/>
-      <c r="D69" s="271"/>
+      <c r="C69" s="272"/>
+      <c r="D69" s="272"/>
       <c r="E69" s="108"/>
       <c r="F69" s="108"/>
       <c r="G69" s="108"/>
@@ -4845,17 +4850,17 @@
     </row>
     <row r="70" spans="1:12" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="117" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B70" s="117"/>
       <c r="C70" s="106"/>
-      <c r="D70" s="272"/>
-      <c r="E70" s="272"/>
-      <c r="F70" s="272"/>
+      <c r="D70" s="273"/>
+      <c r="E70" s="273"/>
+      <c r="F70" s="273"/>
     </row>
     <row r="71" spans="1:12" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="177" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B71" s="107"/>
       <c r="C71" s="108"/>
@@ -4868,27 +4873,27 @@
       <c r="J71" s="88"/>
     </row>
     <row r="72" spans="1:12" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="259" t="s">
-        <v>364</v>
-      </c>
-      <c r="B72" s="259"/>
+      <c r="A72" s="260" t="s">
+        <v>363</v>
+      </c>
+      <c r="B72" s="260"/>
       <c r="C72" s="159"/>
       <c r="D72" s="60" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E72" s="159"/>
       <c r="F72" s="87" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G72" s="89"/>
       <c r="H72" s="89"/>
       <c r="J72" s="157"/>
     </row>
     <row r="73" spans="1:12" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="259" t="s">
-        <v>367</v>
-      </c>
-      <c r="B73" s="259"/>
+      <c r="A73" s="260" t="s">
+        <v>366</v>
+      </c>
+      <c r="B73" s="260"/>
       <c r="C73" s="59" t="s">
         <v>168</v>
       </c>
@@ -4904,25 +4909,25 @@
     </row>
     <row r="74" spans="1:12" s="27" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="112" t="s">
+        <v>367</v>
+      </c>
+      <c r="B74" s="112"/>
+      <c r="C74" s="261"/>
+      <c r="D74" s="261"/>
+      <c r="E74" s="261"/>
+      <c r="F74" s="261"/>
+      <c r="G74" s="261"/>
+      <c r="H74" s="261"/>
+      <c r="I74" s="261"/>
+      <c r="J74" s="261"/>
+    </row>
+    <row r="75" spans="1:12" s="27" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="244" t="s">
         <v>368</v>
       </c>
-      <c r="B74" s="112"/>
-      <c r="C74" s="260"/>
-      <c r="D74" s="260"/>
-      <c r="E74" s="260"/>
-      <c r="F74" s="260"/>
-      <c r="G74" s="260"/>
-      <c r="H74" s="260"/>
-      <c r="I74" s="260"/>
-      <c r="J74" s="260"/>
-    </row>
-    <row r="75" spans="1:12" s="27" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="243" t="s">
-        <v>369</v>
-      </c>
-      <c r="B75" s="243"/>
-      <c r="C75" s="243"/>
-      <c r="D75" s="243"/>
+      <c r="B75" s="244"/>
+      <c r="C75" s="244"/>
+      <c r="D75" s="244"/>
       <c r="E75" s="90"/>
       <c r="F75" s="90"/>
       <c r="G75" s="90"/>
@@ -4932,89 +4937,95 @@
     </row>
     <row r="76" spans="1:12" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="89" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B76" s="89"/>
-      <c r="C76" s="244"/>
-      <c r="D76" s="244"/>
-      <c r="E76" s="244"/>
+      <c r="C76" s="245" t="s">
+        <v>87</v>
+      </c>
+      <c r="D76" s="245"/>
+      <c r="E76" s="245"/>
       <c r="F76" s="89" t="s">
         <v>38</v>
       </c>
       <c r="G76" s="89"/>
-      <c r="H76" s="246"/>
-      <c r="I76" s="246"/>
-      <c r="J76" s="246"/>
+      <c r="H76" s="247" t="s">
+        <v>89</v>
+      </c>
+      <c r="I76" s="247"/>
+      <c r="J76" s="247"/>
     </row>
     <row r="77" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="245"/>
-      <c r="C77" s="245"/>
-      <c r="D77" s="245"/>
-      <c r="E77" s="245"/>
-      <c r="F77" s="245"/>
-      <c r="G77" s="245"/>
-      <c r="H77" s="245"/>
-      <c r="I77" s="245"/>
-      <c r="J77" s="245"/>
+      <c r="B77" s="246"/>
+      <c r="C77" s="246"/>
+      <c r="D77" s="246"/>
+      <c r="E77" s="246"/>
+      <c r="F77" s="246"/>
+      <c r="G77" s="246"/>
+      <c r="H77" s="246"/>
+      <c r="I77" s="246"/>
+      <c r="J77" s="246"/>
     </row>
     <row r="78" spans="1:12" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="226" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B78" s="205"/>
-      <c r="C78" s="247"/>
-      <c r="D78" s="247"/>
-      <c r="E78" s="247"/>
-      <c r="F78" s="247"/>
-      <c r="G78" s="247"/>
-      <c r="H78" s="247"/>
-      <c r="I78" s="247"/>
-      <c r="J78" s="247"/>
+      <c r="C78" s="248"/>
+      <c r="D78" s="248"/>
+      <c r="E78" s="248"/>
+      <c r="F78" s="248"/>
+      <c r="G78" s="248"/>
+      <c r="H78" s="248"/>
+      <c r="I78" s="248"/>
+      <c r="J78" s="248"/>
     </row>
     <row r="79" spans="1:12" s="27" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="226" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B79" s="226"/>
-      <c r="C79" s="264"/>
-      <c r="D79" s="264"/>
-      <c r="E79" s="264"/>
-      <c r="F79" s="264"/>
-      <c r="G79" s="264"/>
-      <c r="H79" s="264"/>
-      <c r="I79" s="264"/>
-      <c r="J79" s="264"/>
+      <c r="C79" s="265"/>
+      <c r="D79" s="265"/>
+      <c r="E79" s="265"/>
+      <c r="F79" s="265"/>
+      <c r="G79" s="265"/>
+      <c r="H79" s="265"/>
+      <c r="I79" s="265"/>
+      <c r="J79" s="265"/>
     </row>
     <row r="80" spans="1:12" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="226" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B80" s="226"/>
-      <c r="C80" s="264"/>
-      <c r="D80" s="264"/>
-      <c r="E80" s="264"/>
-      <c r="F80" s="264"/>
-      <c r="G80" s="264"/>
-      <c r="H80" s="264"/>
-      <c r="I80" s="264"/>
-      <c r="J80" s="264"/>
+      <c r="C80" s="265" t="s">
+        <v>323</v>
+      </c>
+      <c r="D80" s="265"/>
+      <c r="E80" s="265"/>
+      <c r="F80" s="265"/>
+      <c r="G80" s="265"/>
+      <c r="H80" s="265"/>
+      <c r="I80" s="265"/>
+      <c r="J80" s="265"/>
     </row>
     <row r="81" spans="1:10" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="89" t="s">
-        <v>256</v>
-      </c>
-      <c r="B81" s="262"/>
-      <c r="C81" s="262"/>
+        <v>255</v>
+      </c>
+      <c r="B81" s="263"/>
+      <c r="C81" s="263"/>
       <c r="D81" s="89" t="s">
         <v>164</v>
       </c>
       <c r="E81" s="90"/>
       <c r="F81" s="126"/>
       <c r="G81" s="89" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H81" s="89"/>
       <c r="I81" s="89"/>
@@ -5022,12 +5033,12 @@
     </row>
     <row r="82" spans="1:10" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="205" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B82" s="205"/>
       <c r="C82" s="71"/>
       <c r="D82" s="89" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E82" s="89"/>
       <c r="F82" s="89"/>
@@ -5038,12 +5049,12 @@
     </row>
     <row r="83" spans="1:10" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="205" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B83" s="205"/>
       <c r="C83" s="71"/>
       <c r="D83" s="89" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E83" s="90"/>
       <c r="F83" s="90"/>
@@ -5053,29 +5064,31 @@
       <c r="J83" s="90"/>
     </row>
     <row r="84" spans="1:10" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="274" t="s">
+      <c r="A84" s="275" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="274"/>
-      <c r="C84" s="264"/>
-      <c r="D84" s="264"/>
+      <c r="B84" s="275"/>
+      <c r="C84" s="265"/>
+      <c r="D84" s="265"/>
       <c r="E84" s="89" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F84" s="89"/>
-      <c r="G84" s="263"/>
-      <c r="H84" s="263"/>
-      <c r="I84" s="263"/>
-      <c r="J84" s="263"/>
+      <c r="G84" s="264"/>
+      <c r="H84" s="264"/>
+      <c r="I84" s="264"/>
+      <c r="J84" s="264"/>
     </row>
     <row r="85" spans="1:10" s="27" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="89" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B85" s="89"/>
-      <c r="C85" s="264"/>
-      <c r="D85" s="264"/>
-      <c r="E85" s="264"/>
+      <c r="C85" s="265" t="s">
+        <v>258</v>
+      </c>
+      <c r="D85" s="265"/>
+      <c r="E85" s="265"/>
       <c r="F85" s="70" t="s">
         <v>171</v>
       </c>
@@ -5083,26 +5096,26 @@
       <c r="H85" s="91" t="s">
         <v>168</v>
       </c>
-      <c r="I85" s="265"/>
-      <c r="J85" s="265"/>
+      <c r="I85" s="266"/>
+      <c r="J85" s="266"/>
     </row>
     <row r="86" spans="1:10" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="266" t="s">
-        <v>370</v>
-      </c>
-      <c r="B86" s="266"/>
-      <c r="C86" s="267"/>
-      <c r="D86" s="267"/>
-      <c r="E86" s="267"/>
-      <c r="F86" s="267"/>
-      <c r="G86" s="267"/>
-      <c r="H86" s="267"/>
-      <c r="I86" s="267"/>
-      <c r="J86" s="267"/>
+      <c r="A86" s="267" t="s">
+        <v>369</v>
+      </c>
+      <c r="B86" s="267"/>
+      <c r="C86" s="268"/>
+      <c r="D86" s="268"/>
+      <c r="E86" s="268"/>
+      <c r="F86" s="268"/>
+      <c r="G86" s="268"/>
+      <c r="H86" s="268"/>
+      <c r="I86" s="268"/>
+      <c r="J86" s="268"/>
     </row>
     <row r="87" spans="1:10" ht="21" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A87" s="137" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B87" s="137"/>
       <c r="C87" s="137"/>
@@ -5143,18 +5156,18 @@
       <c r="C89" s="111"/>
       <c r="D89" s="111"/>
       <c r="E89" s="111" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G89" s="23"/>
       <c r="I89" s="23" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="67" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="261"/>
-      <c r="B90" s="261"/>
-      <c r="C90" s="261"/>
-      <c r="D90" s="261"/>
+      <c r="A90" s="262"/>
+      <c r="B90" s="262"/>
+      <c r="C90" s="262"/>
+      <c r="D90" s="262"/>
       <c r="E90" s="160"/>
       <c r="F90" s="50" t="s">
         <v>171</v>
@@ -5165,10 +5178,10 @@
       <c r="J90" s="198"/>
     </row>
     <row r="91" spans="1:10" s="67" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="261"/>
-      <c r="B91" s="261"/>
-      <c r="C91" s="261"/>
-      <c r="D91" s="261"/>
+      <c r="A91" s="262"/>
+      <c r="B91" s="262"/>
+      <c r="C91" s="262"/>
+      <c r="D91" s="262"/>
       <c r="E91" s="160"/>
       <c r="F91" s="50" t="s">
         <v>171</v>
@@ -5179,10 +5192,10 @@
       <c r="J91" s="198"/>
     </row>
     <row r="92" spans="1:10" s="67" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="261"/>
-      <c r="B92" s="261"/>
-      <c r="C92" s="261"/>
-      <c r="D92" s="261"/>
+      <c r="A92" s="262"/>
+      <c r="B92" s="262"/>
+      <c r="C92" s="262"/>
+      <c r="D92" s="262"/>
       <c r="E92" s="160"/>
       <c r="F92" s="50" t="s">
         <v>171</v>
@@ -5193,10 +5206,10 @@
       <c r="J92" s="198"/>
     </row>
     <row r="93" spans="1:10" s="67" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="261"/>
-      <c r="B93" s="261"/>
-      <c r="C93" s="261"/>
-      <c r="D93" s="261"/>
+      <c r="A93" s="262"/>
+      <c r="B93" s="262"/>
+      <c r="C93" s="262"/>
+      <c r="D93" s="262"/>
       <c r="E93" s="160"/>
       <c r="F93" s="50" t="s">
         <v>171</v>
@@ -5207,10 +5220,10 @@
       <c r="J93" s="198"/>
     </row>
     <row r="94" spans="1:10" s="67" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="261"/>
-      <c r="B94" s="261"/>
-      <c r="C94" s="261"/>
-      <c r="D94" s="261"/>
+      <c r="A94" s="262"/>
+      <c r="B94" s="262"/>
+      <c r="C94" s="262"/>
+      <c r="D94" s="262"/>
       <c r="E94" s="160"/>
       <c r="F94" s="50" t="s">
         <v>171</v>
@@ -5221,10 +5234,10 @@
       <c r="J94" s="198"/>
     </row>
     <row r="95" spans="1:10" s="67" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="261"/>
-      <c r="B95" s="261"/>
-      <c r="C95" s="261"/>
-      <c r="D95" s="261"/>
+      <c r="A95" s="262"/>
+      <c r="B95" s="262"/>
+      <c r="C95" s="262"/>
+      <c r="D95" s="262"/>
       <c r="E95" s="160"/>
       <c r="F95" s="50" t="s">
         <v>171</v>
@@ -5235,10 +5248,10 @@
       <c r="J95" s="198"/>
     </row>
     <row r="96" spans="1:10" s="67" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="261"/>
-      <c r="B96" s="261"/>
-      <c r="C96" s="261"/>
-      <c r="D96" s="261"/>
+      <c r="A96" s="262"/>
+      <c r="B96" s="262"/>
+      <c r="C96" s="262"/>
+      <c r="D96" s="262"/>
       <c r="E96" s="160"/>
       <c r="F96" s="50" t="s">
         <v>171</v>
@@ -5249,10 +5262,10 @@
       <c r="J96" s="198"/>
     </row>
     <row r="97" spans="1:12" s="67" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="261"/>
-      <c r="B97" s="261"/>
-      <c r="C97" s="261"/>
-      <c r="D97" s="261"/>
+      <c r="A97" s="262"/>
+      <c r="B97" s="262"/>
+      <c r="C97" s="262"/>
+      <c r="D97" s="262"/>
       <c r="E97" s="160"/>
       <c r="F97" s="50" t="s">
         <v>171</v>
@@ -5263,10 +5276,10 @@
       <c r="J97" s="198"/>
     </row>
     <row r="98" spans="1:12" s="67" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="261"/>
-      <c r="B98" s="261"/>
-      <c r="C98" s="261"/>
-      <c r="D98" s="261"/>
+      <c r="A98" s="262"/>
+      <c r="B98" s="262"/>
+      <c r="C98" s="262"/>
+      <c r="D98" s="262"/>
       <c r="E98" s="160"/>
       <c r="F98" s="50" t="s">
         <v>171</v>
@@ -5278,7 +5291,7 @@
     </row>
     <row r="99" spans="1:12" s="67" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="118" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="100" spans="1:12" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5304,10 +5317,10 @@
       <c r="F101" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="G101" s="258"/>
-      <c r="H101" s="258"/>
-      <c r="I101" s="258"/>
-      <c r="J101" s="258"/>
+      <c r="G101" s="259"/>
+      <c r="H101" s="259"/>
+      <c r="I101" s="259"/>
+      <c r="J101" s="259"/>
     </row>
     <row r="102" spans="1:12" s="27" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A102" s="207" t="s">
@@ -5325,7 +5338,7 @@
     </row>
     <row r="103" spans="1:12" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B103" s="62"/>
       <c r="C103" s="62"/>
@@ -5339,40 +5352,40 @@
     </row>
     <row r="104" spans="1:12" s="67" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="63" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B104" s="61"/>
       <c r="C104" s="63" t="s">
-        <v>311</v>
-      </c>
-      <c r="D104" s="273"/>
-      <c r="E104" s="273"/>
+        <v>310</v>
+      </c>
+      <c r="D104" s="274"/>
+      <c r="E104" s="274"/>
       <c r="F104" s="63" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G104" s="162"/>
       <c r="H104" s="63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I104" s="63"/>
       <c r="J104" s="128"/>
     </row>
     <row r="105" spans="1:12" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="63" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B105" s="62"/>
       <c r="C105" s="63" t="s">
-        <v>311</v>
-      </c>
-      <c r="D105" s="273"/>
-      <c r="E105" s="273"/>
+        <v>310</v>
+      </c>
+      <c r="D105" s="274"/>
+      <c r="E105" s="274"/>
       <c r="F105" s="63" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G105" s="162"/>
       <c r="H105" s="63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I105" s="63"/>
       <c r="J105" s="128"/>
@@ -5392,47 +5405,47 @@
       <c r="J106" s="236"/>
     </row>
     <row r="107" spans="1:12" s="27" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="257"/>
-      <c r="B107" s="257"/>
-      <c r="C107" s="257"/>
-      <c r="D107" s="257"/>
-      <c r="E107" s="257"/>
-      <c r="F107" s="257"/>
-      <c r="G107" s="257"/>
-      <c r="H107" s="257"/>
-      <c r="I107" s="257"/>
-      <c r="J107" s="257"/>
+      <c r="A107" s="258"/>
+      <c r="B107" s="258"/>
+      <c r="C107" s="258"/>
+      <c r="D107" s="258"/>
+      <c r="E107" s="258"/>
+      <c r="F107" s="258"/>
+      <c r="G107" s="258"/>
+      <c r="H107" s="258"/>
+      <c r="I107" s="258"/>
+      <c r="J107" s="258"/>
     </row>
     <row r="108" spans="1:12" s="191" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="268" t="s">
-        <v>437</v>
-      </c>
-      <c r="B108" s="268"/>
-      <c r="C108" s="268"/>
-      <c r="D108" s="268"/>
-      <c r="E108" s="268"/>
-      <c r="F108" s="269"/>
-      <c r="G108" s="269"/>
-      <c r="H108" s="269"/>
-      <c r="I108" s="269"/>
-      <c r="J108" s="269"/>
+      <c r="A108" s="269" t="s">
+        <v>436</v>
+      </c>
+      <c r="B108" s="269"/>
+      <c r="C108" s="269"/>
+      <c r="D108" s="269"/>
+      <c r="E108" s="269"/>
+      <c r="F108" s="270"/>
+      <c r="G108" s="270"/>
+      <c r="H108" s="270"/>
+      <c r="I108" s="270"/>
+      <c r="J108" s="270"/>
       <c r="K108" s="190"/>
       <c r="L108" s="190"/>
     </row>
     <row r="109" spans="1:12" s="67" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="192" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B109" s="193"/>
       <c r="C109" s="194" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D109" s="195"/>
       <c r="E109" s="195"/>
-      <c r="F109" s="270" t="s">
-        <v>361</v>
-      </c>
-      <c r="G109" s="270"/>
+      <c r="F109" s="271" t="s">
+        <v>360</v>
+      </c>
+      <c r="G109" s="271"/>
       <c r="H109" s="195"/>
       <c r="I109" s="195"/>
       <c r="J109" s="195"/>
@@ -5441,7 +5454,7 @@
     </row>
     <row r="110" spans="1:12" s="27" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="236" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B110" s="236"/>
       <c r="C110" s="209"/>
@@ -5466,7 +5479,7 @@
     </row>
     <row r="112" spans="1:12" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B112" s="60"/>
       <c r="C112" s="64"/>
@@ -5481,12 +5494,12 @@
     </row>
     <row r="113" spans="1:10" s="66" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A113" s="60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B113" s="162"/>
       <c r="C113" s="27"/>
       <c r="D113" s="27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E113" s="27"/>
       <c r="F113" s="27"/>
@@ -5499,7 +5512,7 @@
       <c r="A114" s="27"/>
       <c r="B114" s="27"/>
       <c r="C114" s="27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D114" s="27"/>
       <c r="E114" s="27"/>
@@ -6238,40 +6251,40 @@
   <sheetData>
     <row r="1" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="137" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
       <c r="E1" s="137"/>
-      <c r="F1" s="277">
+      <c r="F1" s="278">
         <f>ОбщСведения!B3</f>
         <v>0</v>
       </c>
-      <c r="G1" s="277"/>
+      <c r="G1" s="278"/>
       <c r="H1" s="182"/>
       <c r="I1" s="179">
         <f>ОбщСведения!B4</f>
         <v>0</v>
       </c>
-      <c r="J1" s="277">
+      <c r="J1" s="278">
         <f>ОбщСведения!B5</f>
         <v>0</v>
       </c>
-      <c r="K1" s="277"/>
-      <c r="L1" s="277"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
       <c r="M1"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="283" t="s">
-        <v>389</v>
-      </c>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
+      <c r="B2" s="284" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -6279,25 +6292,25 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" s="186">
         <v>1</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F3" s="175">
         <v>1</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="H3" s="303" t="s">
-        <v>404</v>
-      </c>
-      <c r="I3" s="303"/>
+        <v>279</v>
+      </c>
+      <c r="H3" s="304" t="s">
+        <v>403</v>
+      </c>
+      <c r="I3" s="304"/>
       <c r="J3" s="39"/>
       <c r="K3" s="33"/>
       <c r="L3" s="32"/>
@@ -6309,11 +6322,11 @@
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -6323,88 +6336,88 @@
       <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="306" t="s">
+      <c r="A5" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="309" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" s="284" t="s">
+      <c r="B5" s="310" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="309" t="s">
-        <v>254</v>
-      </c>
-      <c r="H5" s="294" t="s">
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="310" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" s="295" t="s">
+        <v>262</v>
+      </c>
+      <c r="I5" s="297"/>
+      <c r="J5" s="295" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" s="296"/>
+      <c r="L5" s="297"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="308"/>
+      <c r="B6" s="311"/>
+      <c r="C6" s="289" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="289" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="290"/>
+      <c r="F6" s="291"/>
+      <c r="G6" s="311"/>
+      <c r="H6" s="298"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="298"/>
+      <c r="K6" s="299"/>
+      <c r="L6" s="300"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="308"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="313"/>
+      <c r="D7" s="287" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="I5" s="296"/>
-      <c r="J5" s="294" t="s">
-        <v>282</v>
-      </c>
-      <c r="K5" s="295"/>
-      <c r="L5" s="296"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="307"/>
-      <c r="B6" s="310"/>
-      <c r="C6" s="288" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="288" t="s">
-        <v>208</v>
-      </c>
-      <c r="E6" s="289"/>
-      <c r="F6" s="290"/>
-      <c r="G6" s="310"/>
-      <c r="H6" s="297"/>
-      <c r="I6" s="299"/>
-      <c r="J6" s="297"/>
-      <c r="K6" s="298"/>
-      <c r="L6" s="299"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="307"/>
-      <c r="B7" s="310"/>
-      <c r="C7" s="312"/>
-      <c r="D7" s="286" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="314" t="s">
-        <v>264</v>
-      </c>
-      <c r="F7" s="314"/>
-      <c r="G7" s="310"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="302"/>
-      <c r="J7" s="300"/>
-      <c r="K7" s="301"/>
-      <c r="L7" s="302"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="311"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="301"/>
+      <c r="K7" s="302"/>
+      <c r="L7" s="303"/>
     </row>
     <row r="8" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="308"/>
-      <c r="B8" s="311"/>
-      <c r="C8" s="313"/>
-      <c r="D8" s="287"/>
+      <c r="A8" s="309"/>
+      <c r="B8" s="312"/>
+      <c r="C8" s="314"/>
+      <c r="D8" s="288"/>
       <c r="E8" s="19"/>
       <c r="F8" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" s="312"/>
+      <c r="H8" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="G8" s="311"/>
-      <c r="H8" s="48" t="s">
-        <v>266</v>
-      </c>
       <c r="I8" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J8" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K8" s="36" t="s">
         <v>273</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>274</v>
       </c>
       <c r="L8" s="34" t="s">
         <v>171</v>
@@ -6708,7 +6721,7 @@
     <row r="24" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -6724,102 +6737,102 @@
     <row r="25" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="292"/>
-      <c r="E25" s="292"/>
-      <c r="F25" s="292"/>
-      <c r="G25" s="292"/>
-      <c r="H25" s="292"/>
-      <c r="I25" s="292"/>
-      <c r="J25" s="292"/>
-      <c r="K25" s="292"/>
-      <c r="L25" s="293"/>
+        <v>252</v>
+      </c>
+      <c r="C25" s="292"/>
+      <c r="D25" s="293"/>
+      <c r="E25" s="293"/>
+      <c r="F25" s="293"/>
+      <c r="G25" s="293"/>
+      <c r="H25" s="293"/>
+      <c r="I25" s="293"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="294"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="304" t="s">
+      <c r="A27" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="304"/>
-      <c r="C27" s="305"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="305"/>
-      <c r="F27" s="305"/>
-      <c r="G27" s="305"/>
-      <c r="H27" s="305"/>
-      <c r="I27" s="305"/>
-      <c r="J27" s="305"/>
+      <c r="B27" s="305"/>
+      <c r="C27" s="306"/>
+      <c r="D27" s="306"/>
+      <c r="E27" s="306"/>
+      <c r="F27" s="306"/>
+      <c r="G27" s="306"/>
+      <c r="H27" s="306"/>
+      <c r="I27" s="306"/>
+      <c r="J27" s="306"/>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D28" s="280"/>
-      <c r="E28" s="280"/>
-      <c r="F28" s="278"/>
-      <c r="G28" s="278"/>
+      <c r="C28" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="281"/>
+      <c r="E28" s="281"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
       <c r="H28" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="281"/>
-      <c r="J28" s="281"/>
+      <c r="I28" s="282"/>
+      <c r="J28" s="282"/>
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="47"/>
-      <c r="C29" s="279"/>
-      <c r="D29" s="279"/>
-      <c r="E29" s="279"/>
-      <c r="F29" s="279"/>
-      <c r="G29" s="279"/>
-      <c r="H29" s="279"/>
-      <c r="I29" s="279"/>
-      <c r="J29" s="279"/>
+      <c r="C29" s="280"/>
+      <c r="D29" s="280"/>
+      <c r="E29" s="280"/>
+      <c r="F29" s="280"/>
+      <c r="G29" s="280"/>
+      <c r="H29" s="280"/>
+      <c r="I29" s="280"/>
+      <c r="J29" s="280"/>
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D30" s="280"/>
-      <c r="E30" s="280"/>
-      <c r="F30" s="278"/>
-      <c r="G30" s="278"/>
+      <c r="C30" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="281"/>
+      <c r="E30" s="281"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
       <c r="H30" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="281"/>
-      <c r="J30" s="281"/>
+      <c r="I30" s="282"/>
+      <c r="J30" s="282"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33" s="186">
         <v>1</v>
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F33" s="175">
         <v>2</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="H33" s="303" t="s">
-        <v>404</v>
-      </c>
-      <c r="I33" s="303"/>
+        <v>279</v>
+      </c>
+      <c r="H33" s="304" t="s">
+        <v>403</v>
+      </c>
+      <c r="I33" s="304"/>
       <c r="J33" s="39"/>
       <c r="K33" s="33"/>
       <c r="L33" s="32"/>
@@ -6831,11 +6844,11 @@
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -6845,88 +6858,88 @@
       <c r="N34" s="42"/>
     </row>
     <row r="35" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="306" t="s">
+      <c r="A35" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="309" t="s">
-        <v>279</v>
-      </c>
-      <c r="C35" s="284" t="s">
+      <c r="B35" s="310" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="284"/>
-      <c r="E35" s="284"/>
-      <c r="F35" s="285"/>
-      <c r="G35" s="309" t="s">
-        <v>254</v>
-      </c>
-      <c r="H35" s="294" t="s">
+      <c r="D35" s="285"/>
+      <c r="E35" s="285"/>
+      <c r="F35" s="286"/>
+      <c r="G35" s="310" t="s">
+        <v>253</v>
+      </c>
+      <c r="H35" s="295" t="s">
+        <v>262</v>
+      </c>
+      <c r="I35" s="297"/>
+      <c r="J35" s="295" t="s">
+        <v>281</v>
+      </c>
+      <c r="K35" s="296"/>
+      <c r="L35" s="297"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="308"/>
+      <c r="B36" s="311"/>
+      <c r="C36" s="289" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" s="289" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="290"/>
+      <c r="F36" s="291"/>
+      <c r="G36" s="311"/>
+      <c r="H36" s="298"/>
+      <c r="I36" s="300"/>
+      <c r="J36" s="298"/>
+      <c r="K36" s="299"/>
+      <c r="L36" s="300"/>
+    </row>
+    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="308"/>
+      <c r="B37" s="311"/>
+      <c r="C37" s="313"/>
+      <c r="D37" s="287" t="s">
+        <v>248</v>
+      </c>
+      <c r="E37" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="I35" s="296"/>
-      <c r="J35" s="294" t="s">
-        <v>282</v>
-      </c>
-      <c r="K35" s="295"/>
-      <c r="L35" s="296"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="307"/>
-      <c r="B36" s="310"/>
-      <c r="C36" s="288" t="s">
-        <v>276</v>
-      </c>
-      <c r="D36" s="288" t="s">
-        <v>208</v>
-      </c>
-      <c r="E36" s="289"/>
-      <c r="F36" s="290"/>
-      <c r="G36" s="310"/>
-      <c r="H36" s="297"/>
-      <c r="I36" s="299"/>
-      <c r="J36" s="297"/>
-      <c r="K36" s="298"/>
-      <c r="L36" s="299"/>
-    </row>
-    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="307"/>
-      <c r="B37" s="310"/>
-      <c r="C37" s="312"/>
-      <c r="D37" s="286" t="s">
-        <v>249</v>
-      </c>
-      <c r="E37" s="314" t="s">
-        <v>264</v>
-      </c>
-      <c r="F37" s="314"/>
-      <c r="G37" s="310"/>
-      <c r="H37" s="300"/>
-      <c r="I37" s="302"/>
-      <c r="J37" s="300"/>
-      <c r="K37" s="301"/>
-      <c r="L37" s="302"/>
+      <c r="F37" s="315"/>
+      <c r="G37" s="311"/>
+      <c r="H37" s="301"/>
+      <c r="I37" s="303"/>
+      <c r="J37" s="301"/>
+      <c r="K37" s="302"/>
+      <c r="L37" s="303"/>
     </row>
     <row r="38" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="308"/>
-      <c r="B38" s="311"/>
-      <c r="C38" s="313"/>
-      <c r="D38" s="287"/>
+      <c r="A38" s="309"/>
+      <c r="B38" s="312"/>
+      <c r="C38" s="314"/>
+      <c r="D38" s="288"/>
       <c r="E38" s="19"/>
       <c r="F38" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" s="312"/>
+      <c r="H38" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="G38" s="311"/>
-      <c r="H38" s="48" t="s">
-        <v>266</v>
-      </c>
       <c r="I38" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J38" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" s="36" t="s">
         <v>273</v>
-      </c>
-      <c r="K38" s="36" t="s">
-        <v>274</v>
       </c>
       <c r="L38" s="34" t="s">
         <v>171</v>
@@ -7230,7 +7243,7 @@
     <row r="54" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="22"/>
       <c r="B54" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -7246,94 +7259,94 @@
     <row r="55" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
       <c r="B55" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="291"/>
-      <c r="D55" s="292"/>
-      <c r="E55" s="292"/>
-      <c r="F55" s="292"/>
-      <c r="G55" s="292"/>
-      <c r="H55" s="292"/>
-      <c r="I55" s="292"/>
-      <c r="J55" s="292"/>
-      <c r="K55" s="292"/>
-      <c r="L55" s="293"/>
+        <v>252</v>
+      </c>
+      <c r="C55" s="292"/>
+      <c r="D55" s="293"/>
+      <c r="E55" s="293"/>
+      <c r="F55" s="293"/>
+      <c r="G55" s="293"/>
+      <c r="H55" s="293"/>
+      <c r="I55" s="293"/>
+      <c r="J55" s="293"/>
+      <c r="K55" s="293"/>
+      <c r="L55" s="294"/>
     </row>
     <row r="57" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="304" t="s">
+      <c r="A57" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="304"/>
-      <c r="C57" s="305"/>
-      <c r="D57" s="305"/>
-      <c r="E57" s="305"/>
-      <c r="F57" s="305"/>
-      <c r="G57" s="305"/>
-      <c r="H57" s="305"/>
-      <c r="I57" s="305"/>
-      <c r="J57" s="305"/>
+      <c r="B57" s="305"/>
+      <c r="C57" s="306"/>
+      <c r="D57" s="306"/>
+      <c r="E57" s="306"/>
+      <c r="F57" s="306"/>
+      <c r="G57" s="306"/>
+      <c r="H57" s="306"/>
+      <c r="I57" s="306"/>
+      <c r="J57" s="306"/>
     </row>
     <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D58" s="280"/>
-      <c r="E58" s="280"/>
-      <c r="F58" s="278"/>
-      <c r="G58" s="278"/>
+      <c r="C58" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="281"/>
+      <c r="E58" s="281"/>
+      <c r="F58" s="279"/>
+      <c r="G58" s="279"/>
       <c r="H58" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I58" s="281"/>
-      <c r="J58" s="281"/>
+      <c r="I58" s="282"/>
+      <c r="J58" s="282"/>
     </row>
     <row r="59" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B59" s="47"/>
-      <c r="C59" s="279"/>
-      <c r="D59" s="279"/>
-      <c r="E59" s="279"/>
-      <c r="F59" s="279"/>
-      <c r="G59" s="279"/>
-      <c r="H59" s="279"/>
-      <c r="I59" s="279"/>
-      <c r="J59" s="279"/>
+      <c r="C59" s="280"/>
+      <c r="D59" s="280"/>
+      <c r="E59" s="280"/>
+      <c r="F59" s="280"/>
+      <c r="G59" s="280"/>
+      <c r="H59" s="280"/>
+      <c r="I59" s="280"/>
+      <c r="J59" s="280"/>
     </row>
     <row r="60" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D60" s="280"/>
-      <c r="E60" s="280"/>
-      <c r="F60" s="278"/>
-      <c r="G60" s="278"/>
+      <c r="C60" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" s="281"/>
+      <c r="E60" s="281"/>
+      <c r="F60" s="279"/>
+      <c r="G60" s="279"/>
       <c r="H60" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I60" s="281"/>
-      <c r="J60" s="281"/>
+      <c r="I60" s="282"/>
+      <c r="J60" s="282"/>
     </row>
     <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B61" s="46"/>
       <c r="C61" s="46"/>
-      <c r="D61" s="278"/>
-      <c r="E61" s="278"/>
-      <c r="F61" s="278"/>
-      <c r="G61" s="278"/>
+      <c r="D61" s="279"/>
+      <c r="E61" s="279"/>
+      <c r="F61" s="279"/>
+      <c r="G61" s="279"/>
       <c r="H61" s="129" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="282"/>
-      <c r="J61" s="282"/>
+      <c r="I61" s="283"/>
+      <c r="J61" s="283"/>
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="1:14" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -7352,7 +7365,7 @@
     </row>
     <row r="63" spans="1:14" s="23" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="130" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B63" s="130"/>
       <c r="C63" s="135"/>
@@ -7380,7 +7393,7 @@
     </row>
     <row r="65" spans="1:14" s="66" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A65" s="136" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B65" s="136"/>
       <c r="C65" s="136"/>
@@ -7398,7 +7411,7 @@
     </row>
     <row r="66" spans="1:14" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="122" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B66" s="122"/>
       <c r="C66" s="64"/>
@@ -7408,7 +7421,7 @@
         <v>180</v>
       </c>
       <c r="H66" s="122" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I66" s="176"/>
       <c r="J66" s="130"/>
@@ -7416,7 +7429,7 @@
     <row r="67" spans="1:14" s="66" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A67" s="27"/>
       <c r="B67" s="121" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -7538,40 +7551,40 @@
   <sheetData>
     <row r="1" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="137" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
       <c r="E1" s="137"/>
-      <c r="F1" s="277">
+      <c r="F1" s="278">
         <f>ОбщСведения!B3</f>
         <v>0</v>
       </c>
-      <c r="G1" s="277"/>
+      <c r="G1" s="278"/>
       <c r="H1" s="182"/>
       <c r="I1" s="179">
         <f>ОбщСведения!B4</f>
         <v>0</v>
       </c>
-      <c r="J1" s="277">
+      <c r="J1" s="278">
         <f>ОбщСведения!B5</f>
         <v>0</v>
       </c>
-      <c r="K1" s="277"/>
-      <c r="L1" s="277"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
       <c r="M1"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="283" t="s">
-        <v>389</v>
-      </c>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
+      <c r="B2" s="284" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -7579,25 +7592,25 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" s="186">
         <v>2</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F3" s="175">
         <v>3</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="H3" s="303" t="s">
-        <v>404</v>
-      </c>
-      <c r="I3" s="303"/>
+        <v>279</v>
+      </c>
+      <c r="H3" s="304" t="s">
+        <v>403</v>
+      </c>
+      <c r="I3" s="304"/>
       <c r="J3" s="39"/>
       <c r="K3" s="33"/>
       <c r="L3" s="32"/>
@@ -7609,11 +7622,11 @@
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -7623,88 +7636,88 @@
       <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="306" t="s">
+      <c r="A5" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="309" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" s="284" t="s">
+      <c r="B5" s="310" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="309" t="s">
-        <v>254</v>
-      </c>
-      <c r="H5" s="294" t="s">
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="310" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" s="295" t="s">
+        <v>262</v>
+      </c>
+      <c r="I5" s="297"/>
+      <c r="J5" s="295" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" s="296"/>
+      <c r="L5" s="297"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="308"/>
+      <c r="B6" s="311"/>
+      <c r="C6" s="289" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="289" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="290"/>
+      <c r="F6" s="291"/>
+      <c r="G6" s="311"/>
+      <c r="H6" s="298"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="298"/>
+      <c r="K6" s="299"/>
+      <c r="L6" s="300"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="308"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="313"/>
+      <c r="D7" s="287" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="I5" s="296"/>
-      <c r="J5" s="294" t="s">
-        <v>282</v>
-      </c>
-      <c r="K5" s="295"/>
-      <c r="L5" s="296"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="307"/>
-      <c r="B6" s="310"/>
-      <c r="C6" s="288" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="288" t="s">
-        <v>208</v>
-      </c>
-      <c r="E6" s="289"/>
-      <c r="F6" s="290"/>
-      <c r="G6" s="310"/>
-      <c r="H6" s="297"/>
-      <c r="I6" s="299"/>
-      <c r="J6" s="297"/>
-      <c r="K6" s="298"/>
-      <c r="L6" s="299"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="307"/>
-      <c r="B7" s="310"/>
-      <c r="C7" s="312"/>
-      <c r="D7" s="286" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="314" t="s">
-        <v>264</v>
-      </c>
-      <c r="F7" s="314"/>
-      <c r="G7" s="310"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="302"/>
-      <c r="J7" s="300"/>
-      <c r="K7" s="301"/>
-      <c r="L7" s="302"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="311"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="301"/>
+      <c r="K7" s="302"/>
+      <c r="L7" s="303"/>
     </row>
     <row r="8" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="308"/>
-      <c r="B8" s="311"/>
-      <c r="C8" s="313"/>
-      <c r="D8" s="287"/>
+      <c r="A8" s="309"/>
+      <c r="B8" s="312"/>
+      <c r="C8" s="314"/>
+      <c r="D8" s="288"/>
       <c r="E8" s="19"/>
       <c r="F8" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" s="312"/>
+      <c r="H8" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="G8" s="311"/>
-      <c r="H8" s="48" t="s">
-        <v>266</v>
-      </c>
       <c r="I8" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J8" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K8" s="36" t="s">
         <v>273</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>274</v>
       </c>
       <c r="L8" s="34" t="s">
         <v>171</v>
@@ -8008,7 +8021,7 @@
     <row r="24" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -8024,102 +8037,102 @@
     <row r="25" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="292"/>
-      <c r="E25" s="292"/>
-      <c r="F25" s="292"/>
-      <c r="G25" s="292"/>
-      <c r="H25" s="292"/>
-      <c r="I25" s="292"/>
-      <c r="J25" s="292"/>
-      <c r="K25" s="292"/>
-      <c r="L25" s="293"/>
+        <v>252</v>
+      </c>
+      <c r="C25" s="292"/>
+      <c r="D25" s="293"/>
+      <c r="E25" s="293"/>
+      <c r="F25" s="293"/>
+      <c r="G25" s="293"/>
+      <c r="H25" s="293"/>
+      <c r="I25" s="293"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="294"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="304" t="s">
+      <c r="A27" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="304"/>
-      <c r="C27" s="305"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="305"/>
-      <c r="F27" s="305"/>
-      <c r="G27" s="305"/>
-      <c r="H27" s="305"/>
-      <c r="I27" s="305"/>
-      <c r="J27" s="305"/>
+      <c r="B27" s="305"/>
+      <c r="C27" s="306"/>
+      <c r="D27" s="306"/>
+      <c r="E27" s="306"/>
+      <c r="F27" s="306"/>
+      <c r="G27" s="306"/>
+      <c r="H27" s="306"/>
+      <c r="I27" s="306"/>
+      <c r="J27" s="306"/>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D28" s="280"/>
-      <c r="E28" s="280"/>
-      <c r="F28" s="278"/>
-      <c r="G28" s="278"/>
+      <c r="C28" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="281"/>
+      <c r="E28" s="281"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
       <c r="H28" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="281"/>
-      <c r="J28" s="281"/>
+      <c r="I28" s="282"/>
+      <c r="J28" s="282"/>
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="47"/>
-      <c r="C29" s="279"/>
-      <c r="D29" s="279"/>
-      <c r="E29" s="279"/>
-      <c r="F29" s="279"/>
-      <c r="G29" s="279"/>
-      <c r="H29" s="279"/>
-      <c r="I29" s="279"/>
-      <c r="J29" s="279"/>
+      <c r="C29" s="280"/>
+      <c r="D29" s="280"/>
+      <c r="E29" s="280"/>
+      <c r="F29" s="280"/>
+      <c r="G29" s="280"/>
+      <c r="H29" s="280"/>
+      <c r="I29" s="280"/>
+      <c r="J29" s="280"/>
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D30" s="280"/>
-      <c r="E30" s="280"/>
-      <c r="F30" s="278"/>
-      <c r="G30" s="278"/>
+      <c r="C30" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="281"/>
+      <c r="E30" s="281"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
       <c r="H30" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="281"/>
-      <c r="J30" s="281"/>
+      <c r="I30" s="282"/>
+      <c r="J30" s="282"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33" s="186">
         <v>2</v>
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F33" s="175">
         <v>4</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="H33" s="303" t="s">
-        <v>404</v>
-      </c>
-      <c r="I33" s="303"/>
+        <v>279</v>
+      </c>
+      <c r="H33" s="304" t="s">
+        <v>403</v>
+      </c>
+      <c r="I33" s="304"/>
       <c r="J33" s="39"/>
       <c r="K33" s="33"/>
       <c r="L33" s="32"/>
@@ -8131,11 +8144,11 @@
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -8145,88 +8158,88 @@
       <c r="N34" s="42"/>
     </row>
     <row r="35" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="306" t="s">
+      <c r="A35" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="309" t="s">
-        <v>279</v>
-      </c>
-      <c r="C35" s="284" t="s">
+      <c r="B35" s="310" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="284"/>
-      <c r="E35" s="284"/>
-      <c r="F35" s="285"/>
-      <c r="G35" s="309" t="s">
-        <v>254</v>
-      </c>
-      <c r="H35" s="294" t="s">
+      <c r="D35" s="285"/>
+      <c r="E35" s="285"/>
+      <c r="F35" s="286"/>
+      <c r="G35" s="310" t="s">
+        <v>253</v>
+      </c>
+      <c r="H35" s="295" t="s">
+        <v>262</v>
+      </c>
+      <c r="I35" s="297"/>
+      <c r="J35" s="295" t="s">
+        <v>281</v>
+      </c>
+      <c r="K35" s="296"/>
+      <c r="L35" s="297"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="308"/>
+      <c r="B36" s="311"/>
+      <c r="C36" s="289" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" s="289" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="290"/>
+      <c r="F36" s="291"/>
+      <c r="G36" s="311"/>
+      <c r="H36" s="298"/>
+      <c r="I36" s="300"/>
+      <c r="J36" s="298"/>
+      <c r="K36" s="299"/>
+      <c r="L36" s="300"/>
+    </row>
+    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="308"/>
+      <c r="B37" s="311"/>
+      <c r="C37" s="313"/>
+      <c r="D37" s="287" t="s">
+        <v>248</v>
+      </c>
+      <c r="E37" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="I35" s="296"/>
-      <c r="J35" s="294" t="s">
-        <v>282</v>
-      </c>
-      <c r="K35" s="295"/>
-      <c r="L35" s="296"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="307"/>
-      <c r="B36" s="310"/>
-      <c r="C36" s="288" t="s">
-        <v>276</v>
-      </c>
-      <c r="D36" s="288" t="s">
-        <v>208</v>
-      </c>
-      <c r="E36" s="289"/>
-      <c r="F36" s="290"/>
-      <c r="G36" s="310"/>
-      <c r="H36" s="297"/>
-      <c r="I36" s="299"/>
-      <c r="J36" s="297"/>
-      <c r="K36" s="298"/>
-      <c r="L36" s="299"/>
-    </row>
-    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="307"/>
-      <c r="B37" s="310"/>
-      <c r="C37" s="312"/>
-      <c r="D37" s="286" t="s">
-        <v>249</v>
-      </c>
-      <c r="E37" s="314" t="s">
-        <v>264</v>
-      </c>
-      <c r="F37" s="314"/>
-      <c r="G37" s="310"/>
-      <c r="H37" s="300"/>
-      <c r="I37" s="302"/>
-      <c r="J37" s="300"/>
-      <c r="K37" s="301"/>
-      <c r="L37" s="302"/>
+      <c r="F37" s="315"/>
+      <c r="G37" s="311"/>
+      <c r="H37" s="301"/>
+      <c r="I37" s="303"/>
+      <c r="J37" s="301"/>
+      <c r="K37" s="302"/>
+      <c r="L37" s="303"/>
     </row>
     <row r="38" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="308"/>
-      <c r="B38" s="311"/>
-      <c r="C38" s="313"/>
-      <c r="D38" s="287"/>
+      <c r="A38" s="309"/>
+      <c r="B38" s="312"/>
+      <c r="C38" s="314"/>
+      <c r="D38" s="288"/>
       <c r="E38" s="19"/>
       <c r="F38" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" s="312"/>
+      <c r="H38" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="G38" s="311"/>
-      <c r="H38" s="48" t="s">
-        <v>266</v>
-      </c>
       <c r="I38" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J38" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" s="36" t="s">
         <v>273</v>
-      </c>
-      <c r="K38" s="36" t="s">
-        <v>274</v>
       </c>
       <c r="L38" s="34" t="s">
         <v>171</v>
@@ -8530,7 +8543,7 @@
     <row r="54" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="22"/>
       <c r="B54" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -8546,94 +8559,94 @@
     <row r="55" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
       <c r="B55" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="291"/>
-      <c r="D55" s="292"/>
-      <c r="E55" s="292"/>
-      <c r="F55" s="292"/>
-      <c r="G55" s="292"/>
-      <c r="H55" s="292"/>
-      <c r="I55" s="292"/>
-      <c r="J55" s="292"/>
-      <c r="K55" s="292"/>
-      <c r="L55" s="293"/>
+        <v>252</v>
+      </c>
+      <c r="C55" s="292"/>
+      <c r="D55" s="293"/>
+      <c r="E55" s="293"/>
+      <c r="F55" s="293"/>
+      <c r="G55" s="293"/>
+      <c r="H55" s="293"/>
+      <c r="I55" s="293"/>
+      <c r="J55" s="293"/>
+      <c r="K55" s="293"/>
+      <c r="L55" s="294"/>
     </row>
     <row r="57" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="304" t="s">
+      <c r="A57" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="304"/>
-      <c r="C57" s="305"/>
-      <c r="D57" s="305"/>
-      <c r="E57" s="305"/>
-      <c r="F57" s="305"/>
-      <c r="G57" s="305"/>
-      <c r="H57" s="305"/>
-      <c r="I57" s="305"/>
-      <c r="J57" s="305"/>
+      <c r="B57" s="305"/>
+      <c r="C57" s="306"/>
+      <c r="D57" s="306"/>
+      <c r="E57" s="306"/>
+      <c r="F57" s="306"/>
+      <c r="G57" s="306"/>
+      <c r="H57" s="306"/>
+      <c r="I57" s="306"/>
+      <c r="J57" s="306"/>
     </row>
     <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D58" s="280"/>
-      <c r="E58" s="280"/>
-      <c r="F58" s="278"/>
-      <c r="G58" s="278"/>
+      <c r="C58" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="281"/>
+      <c r="E58" s="281"/>
+      <c r="F58" s="279"/>
+      <c r="G58" s="279"/>
       <c r="H58" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I58" s="281"/>
-      <c r="J58" s="281"/>
+      <c r="I58" s="282"/>
+      <c r="J58" s="282"/>
     </row>
     <row r="59" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B59" s="47"/>
-      <c r="C59" s="279"/>
-      <c r="D59" s="279"/>
-      <c r="E59" s="279"/>
-      <c r="F59" s="279"/>
-      <c r="G59" s="279"/>
-      <c r="H59" s="279"/>
-      <c r="I59" s="279"/>
-      <c r="J59" s="279"/>
+      <c r="C59" s="280"/>
+      <c r="D59" s="280"/>
+      <c r="E59" s="280"/>
+      <c r="F59" s="280"/>
+      <c r="G59" s="280"/>
+      <c r="H59" s="280"/>
+      <c r="I59" s="280"/>
+      <c r="J59" s="280"/>
     </row>
     <row r="60" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D60" s="280"/>
-      <c r="E60" s="280"/>
-      <c r="F60" s="278"/>
-      <c r="G60" s="278"/>
+      <c r="C60" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" s="281"/>
+      <c r="E60" s="281"/>
+      <c r="F60" s="279"/>
+      <c r="G60" s="279"/>
       <c r="H60" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I60" s="281"/>
-      <c r="J60" s="281"/>
+      <c r="I60" s="282"/>
+      <c r="J60" s="282"/>
     </row>
     <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B61" s="46"/>
       <c r="C61" s="46"/>
-      <c r="D61" s="278"/>
-      <c r="E61" s="278"/>
-      <c r="F61" s="278"/>
-      <c r="G61" s="278"/>
+      <c r="D61" s="279"/>
+      <c r="E61" s="279"/>
+      <c r="F61" s="279"/>
+      <c r="G61" s="279"/>
       <c r="H61" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="282"/>
-      <c r="J61" s="282"/>
+      <c r="I61" s="283"/>
+      <c r="J61" s="283"/>
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="1:14" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -8652,7 +8665,7 @@
     </row>
     <row r="63" spans="1:14" s="23" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="130" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B63" s="130"/>
       <c r="C63" s="135"/>
@@ -8680,7 +8693,7 @@
     </row>
     <row r="65" spans="1:14" s="66" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A65" s="136" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B65" s="136"/>
       <c r="C65" s="136"/>
@@ -8698,7 +8711,7 @@
     </row>
     <row r="66" spans="1:14" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="140" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B66" s="140"/>
       <c r="C66" s="64"/>
@@ -8708,7 +8721,7 @@
         <v>180</v>
       </c>
       <c r="H66" s="140" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I66" s="176"/>
       <c r="J66" s="130"/>
@@ -8716,7 +8729,7 @@
     <row r="67" spans="1:14" s="66" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A67" s="27"/>
       <c r="B67" s="139" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -8838,40 +8851,40 @@
   <sheetData>
     <row r="1" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="137" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
       <c r="E1" s="137"/>
-      <c r="F1" s="277">
+      <c r="F1" s="278">
         <f>ОбщСведения!B3</f>
         <v>0</v>
       </c>
-      <c r="G1" s="277"/>
+      <c r="G1" s="278"/>
       <c r="H1" s="182"/>
       <c r="I1" s="179">
         <f>ОбщСведения!B4</f>
         <v>0</v>
       </c>
-      <c r="J1" s="277">
+      <c r="J1" s="278">
         <f>ОбщСведения!B5</f>
         <v>0</v>
       </c>
-      <c r="K1" s="277"/>
-      <c r="L1" s="277"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
       <c r="M1"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="283" t="s">
-        <v>389</v>
-      </c>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
+      <c r="B2" s="284" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -8879,25 +8892,25 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" s="186">
         <v>3</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F3" s="175">
         <v>5</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="H3" s="303" t="s">
-        <v>404</v>
-      </c>
-      <c r="I3" s="303"/>
+        <v>279</v>
+      </c>
+      <c r="H3" s="304" t="s">
+        <v>403</v>
+      </c>
+      <c r="I3" s="304"/>
       <c r="J3" s="39"/>
       <c r="K3" s="33"/>
       <c r="L3" s="32"/>
@@ -8909,11 +8922,11 @@
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -8923,88 +8936,88 @@
       <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="306" t="s">
+      <c r="A5" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="309" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" s="284" t="s">
+      <c r="B5" s="310" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="309" t="s">
-        <v>254</v>
-      </c>
-      <c r="H5" s="294" t="s">
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="310" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" s="295" t="s">
+        <v>262</v>
+      </c>
+      <c r="I5" s="297"/>
+      <c r="J5" s="295" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" s="296"/>
+      <c r="L5" s="297"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="308"/>
+      <c r="B6" s="311"/>
+      <c r="C6" s="289" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="289" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="290"/>
+      <c r="F6" s="291"/>
+      <c r="G6" s="311"/>
+      <c r="H6" s="298"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="298"/>
+      <c r="K6" s="299"/>
+      <c r="L6" s="300"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="308"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="313"/>
+      <c r="D7" s="287" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="I5" s="296"/>
-      <c r="J5" s="294" t="s">
-        <v>282</v>
-      </c>
-      <c r="K5" s="295"/>
-      <c r="L5" s="296"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="307"/>
-      <c r="B6" s="310"/>
-      <c r="C6" s="288" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="288" t="s">
-        <v>208</v>
-      </c>
-      <c r="E6" s="289"/>
-      <c r="F6" s="290"/>
-      <c r="G6" s="310"/>
-      <c r="H6" s="297"/>
-      <c r="I6" s="299"/>
-      <c r="J6" s="297"/>
-      <c r="K6" s="298"/>
-      <c r="L6" s="299"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="307"/>
-      <c r="B7" s="310"/>
-      <c r="C7" s="312"/>
-      <c r="D7" s="286" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="314" t="s">
-        <v>264</v>
-      </c>
-      <c r="F7" s="314"/>
-      <c r="G7" s="310"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="302"/>
-      <c r="J7" s="300"/>
-      <c r="K7" s="301"/>
-      <c r="L7" s="302"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="311"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="301"/>
+      <c r="K7" s="302"/>
+      <c r="L7" s="303"/>
     </row>
     <row r="8" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="308"/>
-      <c r="B8" s="311"/>
-      <c r="C8" s="313"/>
-      <c r="D8" s="287"/>
+      <c r="A8" s="309"/>
+      <c r="B8" s="312"/>
+      <c r="C8" s="314"/>
+      <c r="D8" s="288"/>
       <c r="E8" s="19"/>
       <c r="F8" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" s="312"/>
+      <c r="H8" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="G8" s="311"/>
-      <c r="H8" s="48" t="s">
-        <v>266</v>
-      </c>
       <c r="I8" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J8" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K8" s="36" t="s">
         <v>273</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>274</v>
       </c>
       <c r="L8" s="34" t="s">
         <v>171</v>
@@ -9308,7 +9321,7 @@
     <row r="24" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -9324,102 +9337,102 @@
     <row r="25" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="292"/>
-      <c r="E25" s="292"/>
-      <c r="F25" s="292"/>
-      <c r="G25" s="292"/>
-      <c r="H25" s="292"/>
-      <c r="I25" s="292"/>
-      <c r="J25" s="292"/>
-      <c r="K25" s="292"/>
-      <c r="L25" s="293"/>
+        <v>252</v>
+      </c>
+      <c r="C25" s="292"/>
+      <c r="D25" s="293"/>
+      <c r="E25" s="293"/>
+      <c r="F25" s="293"/>
+      <c r="G25" s="293"/>
+      <c r="H25" s="293"/>
+      <c r="I25" s="293"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="294"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="304" t="s">
+      <c r="A27" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="304"/>
-      <c r="C27" s="305"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="305"/>
-      <c r="F27" s="305"/>
-      <c r="G27" s="305"/>
-      <c r="H27" s="305"/>
-      <c r="I27" s="305"/>
-      <c r="J27" s="305"/>
+      <c r="B27" s="305"/>
+      <c r="C27" s="306"/>
+      <c r="D27" s="306"/>
+      <c r="E27" s="306"/>
+      <c r="F27" s="306"/>
+      <c r="G27" s="306"/>
+      <c r="H27" s="306"/>
+      <c r="I27" s="306"/>
+      <c r="J27" s="306"/>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D28" s="280"/>
-      <c r="E28" s="280"/>
-      <c r="F28" s="278"/>
-      <c r="G28" s="278"/>
+      <c r="C28" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="281"/>
+      <c r="E28" s="281"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
       <c r="H28" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="281"/>
-      <c r="J28" s="281"/>
+      <c r="I28" s="282"/>
+      <c r="J28" s="282"/>
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="47"/>
-      <c r="C29" s="279"/>
-      <c r="D29" s="279"/>
-      <c r="E29" s="279"/>
-      <c r="F29" s="279"/>
-      <c r="G29" s="279"/>
-      <c r="H29" s="279"/>
-      <c r="I29" s="279"/>
-      <c r="J29" s="279"/>
+      <c r="C29" s="280"/>
+      <c r="D29" s="280"/>
+      <c r="E29" s="280"/>
+      <c r="F29" s="280"/>
+      <c r="G29" s="280"/>
+      <c r="H29" s="280"/>
+      <c r="I29" s="280"/>
+      <c r="J29" s="280"/>
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D30" s="280"/>
-      <c r="E30" s="280"/>
-      <c r="F30" s="278"/>
-      <c r="G30" s="278"/>
+      <c r="C30" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="281"/>
+      <c r="E30" s="281"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
       <c r="H30" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="281"/>
-      <c r="J30" s="281"/>
+      <c r="I30" s="282"/>
+      <c r="J30" s="282"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33" s="186">
         <v>3</v>
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F33" s="175">
         <v>6</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="H33" s="303" t="s">
-        <v>404</v>
-      </c>
-      <c r="I33" s="303"/>
+        <v>279</v>
+      </c>
+      <c r="H33" s="304" t="s">
+        <v>403</v>
+      </c>
+      <c r="I33" s="304"/>
       <c r="J33" s="39"/>
       <c r="K33" s="33"/>
       <c r="L33" s="32"/>
@@ -9431,11 +9444,11 @@
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -9445,88 +9458,88 @@
       <c r="N34" s="42"/>
     </row>
     <row r="35" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="306" t="s">
+      <c r="A35" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="309" t="s">
-        <v>279</v>
-      </c>
-      <c r="C35" s="284" t="s">
+      <c r="B35" s="310" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="284"/>
-      <c r="E35" s="284"/>
-      <c r="F35" s="285"/>
-      <c r="G35" s="309" t="s">
-        <v>254</v>
-      </c>
-      <c r="H35" s="294" t="s">
+      <c r="D35" s="285"/>
+      <c r="E35" s="285"/>
+      <c r="F35" s="286"/>
+      <c r="G35" s="310" t="s">
+        <v>253</v>
+      </c>
+      <c r="H35" s="295" t="s">
+        <v>262</v>
+      </c>
+      <c r="I35" s="297"/>
+      <c r="J35" s="295" t="s">
+        <v>281</v>
+      </c>
+      <c r="K35" s="296"/>
+      <c r="L35" s="297"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="308"/>
+      <c r="B36" s="311"/>
+      <c r="C36" s="289" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" s="289" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="290"/>
+      <c r="F36" s="291"/>
+      <c r="G36" s="311"/>
+      <c r="H36" s="298"/>
+      <c r="I36" s="300"/>
+      <c r="J36" s="298"/>
+      <c r="K36" s="299"/>
+      <c r="L36" s="300"/>
+    </row>
+    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="308"/>
+      <c r="B37" s="311"/>
+      <c r="C37" s="313"/>
+      <c r="D37" s="287" t="s">
+        <v>248</v>
+      </c>
+      <c r="E37" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="I35" s="296"/>
-      <c r="J35" s="294" t="s">
-        <v>282</v>
-      </c>
-      <c r="K35" s="295"/>
-      <c r="L35" s="296"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="307"/>
-      <c r="B36" s="310"/>
-      <c r="C36" s="288" t="s">
-        <v>276</v>
-      </c>
-      <c r="D36" s="288" t="s">
-        <v>208</v>
-      </c>
-      <c r="E36" s="289"/>
-      <c r="F36" s="290"/>
-      <c r="G36" s="310"/>
-      <c r="H36" s="297"/>
-      <c r="I36" s="299"/>
-      <c r="J36" s="297"/>
-      <c r="K36" s="298"/>
-      <c r="L36" s="299"/>
-    </row>
-    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="307"/>
-      <c r="B37" s="310"/>
-      <c r="C37" s="312"/>
-      <c r="D37" s="286" t="s">
-        <v>249</v>
-      </c>
-      <c r="E37" s="314" t="s">
-        <v>264</v>
-      </c>
-      <c r="F37" s="314"/>
-      <c r="G37" s="310"/>
-      <c r="H37" s="300"/>
-      <c r="I37" s="302"/>
-      <c r="J37" s="300"/>
-      <c r="K37" s="301"/>
-      <c r="L37" s="302"/>
+      <c r="F37" s="315"/>
+      <c r="G37" s="311"/>
+      <c r="H37" s="301"/>
+      <c r="I37" s="303"/>
+      <c r="J37" s="301"/>
+      <c r="K37" s="302"/>
+      <c r="L37" s="303"/>
     </row>
     <row r="38" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="308"/>
-      <c r="B38" s="311"/>
-      <c r="C38" s="313"/>
-      <c r="D38" s="287"/>
+      <c r="A38" s="309"/>
+      <c r="B38" s="312"/>
+      <c r="C38" s="314"/>
+      <c r="D38" s="288"/>
       <c r="E38" s="19"/>
       <c r="F38" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" s="312"/>
+      <c r="H38" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="G38" s="311"/>
-      <c r="H38" s="48" t="s">
-        <v>266</v>
-      </c>
       <c r="I38" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J38" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" s="36" t="s">
         <v>273</v>
-      </c>
-      <c r="K38" s="36" t="s">
-        <v>274</v>
       </c>
       <c r="L38" s="34" t="s">
         <v>171</v>
@@ -9830,7 +9843,7 @@
     <row r="54" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="22"/>
       <c r="B54" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -9846,94 +9859,94 @@
     <row r="55" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
       <c r="B55" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="291"/>
-      <c r="D55" s="292"/>
-      <c r="E55" s="292"/>
-      <c r="F55" s="292"/>
-      <c r="G55" s="292"/>
-      <c r="H55" s="292"/>
-      <c r="I55" s="292"/>
-      <c r="J55" s="292"/>
-      <c r="K55" s="292"/>
-      <c r="L55" s="293"/>
+        <v>252</v>
+      </c>
+      <c r="C55" s="292"/>
+      <c r="D55" s="293"/>
+      <c r="E55" s="293"/>
+      <c r="F55" s="293"/>
+      <c r="G55" s="293"/>
+      <c r="H55" s="293"/>
+      <c r="I55" s="293"/>
+      <c r="J55" s="293"/>
+      <c r="K55" s="293"/>
+      <c r="L55" s="294"/>
     </row>
     <row r="57" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="304" t="s">
+      <c r="A57" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="304"/>
-      <c r="C57" s="305"/>
-      <c r="D57" s="305"/>
-      <c r="E57" s="305"/>
-      <c r="F57" s="305"/>
-      <c r="G57" s="305"/>
-      <c r="H57" s="305"/>
-      <c r="I57" s="305"/>
-      <c r="J57" s="305"/>
+      <c r="B57" s="305"/>
+      <c r="C57" s="306"/>
+      <c r="D57" s="306"/>
+      <c r="E57" s="306"/>
+      <c r="F57" s="306"/>
+      <c r="G57" s="306"/>
+      <c r="H57" s="306"/>
+      <c r="I57" s="306"/>
+      <c r="J57" s="306"/>
     </row>
     <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D58" s="280"/>
-      <c r="E58" s="280"/>
-      <c r="F58" s="278"/>
-      <c r="G58" s="278"/>
+      <c r="C58" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="281"/>
+      <c r="E58" s="281"/>
+      <c r="F58" s="279"/>
+      <c r="G58" s="279"/>
       <c r="H58" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I58" s="281"/>
-      <c r="J58" s="281"/>
+      <c r="I58" s="282"/>
+      <c r="J58" s="282"/>
     </row>
     <row r="59" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B59" s="47"/>
-      <c r="C59" s="279"/>
-      <c r="D59" s="279"/>
-      <c r="E59" s="279"/>
-      <c r="F59" s="279"/>
-      <c r="G59" s="279"/>
-      <c r="H59" s="279"/>
-      <c r="I59" s="279"/>
-      <c r="J59" s="279"/>
+      <c r="C59" s="280"/>
+      <c r="D59" s="280"/>
+      <c r="E59" s="280"/>
+      <c r="F59" s="280"/>
+      <c r="G59" s="280"/>
+      <c r="H59" s="280"/>
+      <c r="I59" s="280"/>
+      <c r="J59" s="280"/>
     </row>
     <row r="60" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D60" s="280"/>
-      <c r="E60" s="280"/>
-      <c r="F60" s="278"/>
-      <c r="G60" s="278"/>
+      <c r="C60" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" s="281"/>
+      <c r="E60" s="281"/>
+      <c r="F60" s="279"/>
+      <c r="G60" s="279"/>
       <c r="H60" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I60" s="281"/>
-      <c r="J60" s="281"/>
+      <c r="I60" s="282"/>
+      <c r="J60" s="282"/>
     </row>
     <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B61" s="46"/>
       <c r="C61" s="46"/>
-      <c r="D61" s="278"/>
-      <c r="E61" s="278"/>
-      <c r="F61" s="278"/>
-      <c r="G61" s="278"/>
+      <c r="D61" s="279"/>
+      <c r="E61" s="279"/>
+      <c r="F61" s="279"/>
+      <c r="G61" s="279"/>
       <c r="H61" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="282"/>
-      <c r="J61" s="282"/>
+      <c r="I61" s="283"/>
+      <c r="J61" s="283"/>
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="1:14" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -9952,7 +9965,7 @@
     </row>
     <row r="63" spans="1:14" s="23" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="130" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B63" s="130"/>
       <c r="C63" s="135"/>
@@ -9980,7 +9993,7 @@
     </row>
     <row r="65" spans="1:14" s="66" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A65" s="136" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B65" s="136"/>
       <c r="C65" s="136"/>
@@ -9998,7 +10011,7 @@
     </row>
     <row r="66" spans="1:14" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="140" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B66" s="140"/>
       <c r="C66" s="64"/>
@@ -10008,7 +10021,7 @@
         <v>180</v>
       </c>
       <c r="H66" s="140" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I66" s="176"/>
       <c r="J66" s="130"/>
@@ -10016,7 +10029,7 @@
     <row r="67" spans="1:14" s="66" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A67" s="27"/>
       <c r="B67" s="139" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -10138,40 +10151,40 @@
   <sheetData>
     <row r="1" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="137" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
       <c r="E1" s="137"/>
-      <c r="F1" s="277">
+      <c r="F1" s="278">
         <f>ОбщСведения!B3</f>
         <v>0</v>
       </c>
-      <c r="G1" s="277"/>
+      <c r="G1" s="278"/>
       <c r="H1" s="182"/>
       <c r="I1" s="179">
         <f>ОбщСведения!B4</f>
         <v>0</v>
       </c>
-      <c r="J1" s="277">
+      <c r="J1" s="278">
         <f>ОбщСведения!B5</f>
         <v>0</v>
       </c>
-      <c r="K1" s="277"/>
-      <c r="L1" s="277"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
       <c r="M1"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="283" t="s">
-        <v>389</v>
-      </c>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
+      <c r="B2" s="284" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -10179,25 +10192,25 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" s="186">
         <v>4</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F3" s="175">
         <v>7</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="H3" s="303" t="s">
-        <v>404</v>
-      </c>
-      <c r="I3" s="303"/>
+        <v>279</v>
+      </c>
+      <c r="H3" s="304" t="s">
+        <v>403</v>
+      </c>
+      <c r="I3" s="304"/>
       <c r="J3" s="39"/>
       <c r="K3" s="33"/>
       <c r="L3" s="32"/>
@@ -10209,11 +10222,11 @@
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -10223,88 +10236,88 @@
       <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="306" t="s">
+      <c r="A5" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="309" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" s="284" t="s">
+      <c r="B5" s="310" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="309" t="s">
-        <v>254</v>
-      </c>
-      <c r="H5" s="294" t="s">
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="310" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" s="295" t="s">
+        <v>262</v>
+      </c>
+      <c r="I5" s="297"/>
+      <c r="J5" s="295" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" s="296"/>
+      <c r="L5" s="297"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="308"/>
+      <c r="B6" s="311"/>
+      <c r="C6" s="289" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="289" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="290"/>
+      <c r="F6" s="291"/>
+      <c r="G6" s="311"/>
+      <c r="H6" s="298"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="298"/>
+      <c r="K6" s="299"/>
+      <c r="L6" s="300"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="308"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="313"/>
+      <c r="D7" s="287" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="I5" s="296"/>
-      <c r="J5" s="294" t="s">
-        <v>282</v>
-      </c>
-      <c r="K5" s="295"/>
-      <c r="L5" s="296"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="307"/>
-      <c r="B6" s="310"/>
-      <c r="C6" s="288" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="288" t="s">
-        <v>208</v>
-      </c>
-      <c r="E6" s="289"/>
-      <c r="F6" s="290"/>
-      <c r="G6" s="310"/>
-      <c r="H6" s="297"/>
-      <c r="I6" s="299"/>
-      <c r="J6" s="297"/>
-      <c r="K6" s="298"/>
-      <c r="L6" s="299"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="307"/>
-      <c r="B7" s="310"/>
-      <c r="C7" s="312"/>
-      <c r="D7" s="286" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="314" t="s">
-        <v>264</v>
-      </c>
-      <c r="F7" s="314"/>
-      <c r="G7" s="310"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="302"/>
-      <c r="J7" s="300"/>
-      <c r="K7" s="301"/>
-      <c r="L7" s="302"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="311"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="301"/>
+      <c r="K7" s="302"/>
+      <c r="L7" s="303"/>
     </row>
     <row r="8" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="308"/>
-      <c r="B8" s="311"/>
-      <c r="C8" s="313"/>
-      <c r="D8" s="287"/>
+      <c r="A8" s="309"/>
+      <c r="B8" s="312"/>
+      <c r="C8" s="314"/>
+      <c r="D8" s="288"/>
       <c r="E8" s="19"/>
       <c r="F8" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" s="312"/>
+      <c r="H8" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="G8" s="311"/>
-      <c r="H8" s="48" t="s">
-        <v>266</v>
-      </c>
       <c r="I8" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J8" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K8" s="36" t="s">
         <v>273</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>274</v>
       </c>
       <c r="L8" s="34" t="s">
         <v>171</v>
@@ -10608,7 +10621,7 @@
     <row r="24" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -10624,102 +10637,102 @@
     <row r="25" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="292"/>
-      <c r="E25" s="292"/>
-      <c r="F25" s="292"/>
-      <c r="G25" s="292"/>
-      <c r="H25" s="292"/>
-      <c r="I25" s="292"/>
-      <c r="J25" s="292"/>
-      <c r="K25" s="292"/>
-      <c r="L25" s="293"/>
+        <v>252</v>
+      </c>
+      <c r="C25" s="292"/>
+      <c r="D25" s="293"/>
+      <c r="E25" s="293"/>
+      <c r="F25" s="293"/>
+      <c r="G25" s="293"/>
+      <c r="H25" s="293"/>
+      <c r="I25" s="293"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="294"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="304" t="s">
+      <c r="A27" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="304"/>
-      <c r="C27" s="305"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="305"/>
-      <c r="F27" s="305"/>
-      <c r="G27" s="305"/>
-      <c r="H27" s="305"/>
-      <c r="I27" s="305"/>
-      <c r="J27" s="305"/>
+      <c r="B27" s="305"/>
+      <c r="C27" s="306"/>
+      <c r="D27" s="306"/>
+      <c r="E27" s="306"/>
+      <c r="F27" s="306"/>
+      <c r="G27" s="306"/>
+      <c r="H27" s="306"/>
+      <c r="I27" s="306"/>
+      <c r="J27" s="306"/>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D28" s="280"/>
-      <c r="E28" s="280"/>
-      <c r="F28" s="278"/>
-      <c r="G28" s="278"/>
+      <c r="C28" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="281"/>
+      <c r="E28" s="281"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
       <c r="H28" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="281"/>
-      <c r="J28" s="281"/>
+      <c r="I28" s="282"/>
+      <c r="J28" s="282"/>
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="47"/>
-      <c r="C29" s="279"/>
-      <c r="D29" s="279"/>
-      <c r="E29" s="279"/>
-      <c r="F29" s="279"/>
-      <c r="G29" s="279"/>
-      <c r="H29" s="279"/>
-      <c r="I29" s="279"/>
-      <c r="J29" s="279"/>
+      <c r="C29" s="280"/>
+      <c r="D29" s="280"/>
+      <c r="E29" s="280"/>
+      <c r="F29" s="280"/>
+      <c r="G29" s="280"/>
+      <c r="H29" s="280"/>
+      <c r="I29" s="280"/>
+      <c r="J29" s="280"/>
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D30" s="280"/>
-      <c r="E30" s="280"/>
-      <c r="F30" s="278"/>
-      <c r="G30" s="278"/>
+      <c r="C30" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="281"/>
+      <c r="E30" s="281"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
       <c r="H30" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="281"/>
-      <c r="J30" s="281"/>
+      <c r="I30" s="282"/>
+      <c r="J30" s="282"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33" s="186">
         <v>4</v>
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F33" s="175">
         <v>8</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="H33" s="303" t="s">
-        <v>404</v>
-      </c>
-      <c r="I33" s="303"/>
+        <v>279</v>
+      </c>
+      <c r="H33" s="304" t="s">
+        <v>403</v>
+      </c>
+      <c r="I33" s="304"/>
       <c r="J33" s="39"/>
       <c r="K33" s="33"/>
       <c r="L33" s="32"/>
@@ -10731,11 +10744,11 @@
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -10745,88 +10758,88 @@
       <c r="N34" s="42"/>
     </row>
     <row r="35" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="306" t="s">
+      <c r="A35" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="309" t="s">
-        <v>279</v>
-      </c>
-      <c r="C35" s="284" t="s">
+      <c r="B35" s="310" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="284"/>
-      <c r="E35" s="284"/>
-      <c r="F35" s="285"/>
-      <c r="G35" s="309" t="s">
-        <v>254</v>
-      </c>
-      <c r="H35" s="294" t="s">
+      <c r="D35" s="285"/>
+      <c r="E35" s="285"/>
+      <c r="F35" s="286"/>
+      <c r="G35" s="310" t="s">
+        <v>253</v>
+      </c>
+      <c r="H35" s="295" t="s">
+        <v>262</v>
+      </c>
+      <c r="I35" s="297"/>
+      <c r="J35" s="295" t="s">
+        <v>281</v>
+      </c>
+      <c r="K35" s="296"/>
+      <c r="L35" s="297"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="308"/>
+      <c r="B36" s="311"/>
+      <c r="C36" s="289" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" s="289" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="290"/>
+      <c r="F36" s="291"/>
+      <c r="G36" s="311"/>
+      <c r="H36" s="298"/>
+      <c r="I36" s="300"/>
+      <c r="J36" s="298"/>
+      <c r="K36" s="299"/>
+      <c r="L36" s="300"/>
+    </row>
+    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="308"/>
+      <c r="B37" s="311"/>
+      <c r="C37" s="313"/>
+      <c r="D37" s="287" t="s">
+        <v>248</v>
+      </c>
+      <c r="E37" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="I35" s="296"/>
-      <c r="J35" s="294" t="s">
-        <v>282</v>
-      </c>
-      <c r="K35" s="295"/>
-      <c r="L35" s="296"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="307"/>
-      <c r="B36" s="310"/>
-      <c r="C36" s="288" t="s">
-        <v>276</v>
-      </c>
-      <c r="D36" s="288" t="s">
-        <v>208</v>
-      </c>
-      <c r="E36" s="289"/>
-      <c r="F36" s="290"/>
-      <c r="G36" s="310"/>
-      <c r="H36" s="297"/>
-      <c r="I36" s="299"/>
-      <c r="J36" s="297"/>
-      <c r="K36" s="298"/>
-      <c r="L36" s="299"/>
-    </row>
-    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="307"/>
-      <c r="B37" s="310"/>
-      <c r="C37" s="312"/>
-      <c r="D37" s="286" t="s">
-        <v>249</v>
-      </c>
-      <c r="E37" s="314" t="s">
-        <v>264</v>
-      </c>
-      <c r="F37" s="314"/>
-      <c r="G37" s="310"/>
-      <c r="H37" s="300"/>
-      <c r="I37" s="302"/>
-      <c r="J37" s="300"/>
-      <c r="K37" s="301"/>
-      <c r="L37" s="302"/>
+      <c r="F37" s="315"/>
+      <c r="G37" s="311"/>
+      <c r="H37" s="301"/>
+      <c r="I37" s="303"/>
+      <c r="J37" s="301"/>
+      <c r="K37" s="302"/>
+      <c r="L37" s="303"/>
     </row>
     <row r="38" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="308"/>
-      <c r="B38" s="311"/>
-      <c r="C38" s="313"/>
-      <c r="D38" s="287"/>
+      <c r="A38" s="309"/>
+      <c r="B38" s="312"/>
+      <c r="C38" s="314"/>
+      <c r="D38" s="288"/>
       <c r="E38" s="19"/>
       <c r="F38" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" s="312"/>
+      <c r="H38" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="G38" s="311"/>
-      <c r="H38" s="48" t="s">
-        <v>266</v>
-      </c>
       <c r="I38" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J38" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" s="36" t="s">
         <v>273</v>
-      </c>
-      <c r="K38" s="36" t="s">
-        <v>274</v>
       </c>
       <c r="L38" s="34" t="s">
         <v>171</v>
@@ -11130,7 +11143,7 @@
     <row r="54" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="22"/>
       <c r="B54" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -11146,94 +11159,94 @@
     <row r="55" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
       <c r="B55" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="291"/>
-      <c r="D55" s="292"/>
-      <c r="E55" s="292"/>
-      <c r="F55" s="292"/>
-      <c r="G55" s="292"/>
-      <c r="H55" s="292"/>
-      <c r="I55" s="292"/>
-      <c r="J55" s="292"/>
-      <c r="K55" s="292"/>
-      <c r="L55" s="293"/>
+        <v>252</v>
+      </c>
+      <c r="C55" s="292"/>
+      <c r="D55" s="293"/>
+      <c r="E55" s="293"/>
+      <c r="F55" s="293"/>
+      <c r="G55" s="293"/>
+      <c r="H55" s="293"/>
+      <c r="I55" s="293"/>
+      <c r="J55" s="293"/>
+      <c r="K55" s="293"/>
+      <c r="L55" s="294"/>
     </row>
     <row r="57" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="304" t="s">
+      <c r="A57" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="304"/>
-      <c r="C57" s="305"/>
-      <c r="D57" s="305"/>
-      <c r="E57" s="305"/>
-      <c r="F57" s="305"/>
-      <c r="G57" s="305"/>
-      <c r="H57" s="305"/>
-      <c r="I57" s="305"/>
-      <c r="J57" s="305"/>
+      <c r="B57" s="305"/>
+      <c r="C57" s="306"/>
+      <c r="D57" s="306"/>
+      <c r="E57" s="306"/>
+      <c r="F57" s="306"/>
+      <c r="G57" s="306"/>
+      <c r="H57" s="306"/>
+      <c r="I57" s="306"/>
+      <c r="J57" s="306"/>
     </row>
     <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D58" s="280"/>
-      <c r="E58" s="280"/>
-      <c r="F58" s="278"/>
-      <c r="G58" s="278"/>
+      <c r="C58" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="281"/>
+      <c r="E58" s="281"/>
+      <c r="F58" s="279"/>
+      <c r="G58" s="279"/>
       <c r="H58" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I58" s="281"/>
-      <c r="J58" s="281"/>
+      <c r="I58" s="282"/>
+      <c r="J58" s="282"/>
     </row>
     <row r="59" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B59" s="47"/>
-      <c r="C59" s="279"/>
-      <c r="D59" s="279"/>
-      <c r="E59" s="279"/>
-      <c r="F59" s="279"/>
-      <c r="G59" s="279"/>
-      <c r="H59" s="279"/>
-      <c r="I59" s="279"/>
-      <c r="J59" s="279"/>
+      <c r="C59" s="280"/>
+      <c r="D59" s="280"/>
+      <c r="E59" s="280"/>
+      <c r="F59" s="280"/>
+      <c r="G59" s="280"/>
+      <c r="H59" s="280"/>
+      <c r="I59" s="280"/>
+      <c r="J59" s="280"/>
     </row>
     <row r="60" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D60" s="280"/>
-      <c r="E60" s="280"/>
-      <c r="F60" s="278"/>
-      <c r="G60" s="278"/>
+      <c r="C60" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" s="281"/>
+      <c r="E60" s="281"/>
+      <c r="F60" s="279"/>
+      <c r="G60" s="279"/>
       <c r="H60" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I60" s="281"/>
-      <c r="J60" s="281"/>
+      <c r="I60" s="282"/>
+      <c r="J60" s="282"/>
     </row>
     <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B61" s="46"/>
       <c r="C61" s="46"/>
-      <c r="D61" s="278"/>
-      <c r="E61" s="278"/>
-      <c r="F61" s="278"/>
-      <c r="G61" s="278"/>
+      <c r="D61" s="279"/>
+      <c r="E61" s="279"/>
+      <c r="F61" s="279"/>
+      <c r="G61" s="279"/>
       <c r="H61" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="282"/>
-      <c r="J61" s="282"/>
+      <c r="I61" s="283"/>
+      <c r="J61" s="283"/>
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="1:14" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -11252,7 +11265,7 @@
     </row>
     <row r="63" spans="1:14" s="23" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="130" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B63" s="130"/>
       <c r="C63" s="135"/>
@@ -11280,7 +11293,7 @@
     </row>
     <row r="65" spans="1:14" s="66" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A65" s="136" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B65" s="136"/>
       <c r="C65" s="136"/>
@@ -11298,7 +11311,7 @@
     </row>
     <row r="66" spans="1:14" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="140" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B66" s="140"/>
       <c r="C66" s="64"/>
@@ -11308,7 +11321,7 @@
         <v>180</v>
       </c>
       <c r="H66" s="140" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I66" s="176"/>
       <c r="J66" s="130"/>
@@ -11316,7 +11329,7 @@
     <row r="67" spans="1:14" s="66" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A67" s="27"/>
       <c r="B67" s="139" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -11438,40 +11451,40 @@
   <sheetData>
     <row r="1" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="137" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
       <c r="E1" s="137"/>
-      <c r="F1" s="277">
+      <c r="F1" s="278">
         <f>ОбщСведения!B3</f>
         <v>0</v>
       </c>
-      <c r="G1" s="277"/>
+      <c r="G1" s="278"/>
       <c r="H1" s="182"/>
       <c r="I1" s="179">
         <f>ОбщСведения!B4</f>
         <v>0</v>
       </c>
-      <c r="J1" s="277">
+      <c r="J1" s="278">
         <f>ОбщСведения!B5</f>
         <v>0</v>
       </c>
-      <c r="K1" s="277"/>
-      <c r="L1" s="277"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
       <c r="M1"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="283" t="s">
-        <v>389</v>
-      </c>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
+      <c r="B2" s="284" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -11479,25 +11492,25 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" s="186">
         <v>5</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F3" s="175">
         <v>9</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="H3" s="303" t="s">
-        <v>404</v>
-      </c>
-      <c r="I3" s="303"/>
+        <v>279</v>
+      </c>
+      <c r="H3" s="304" t="s">
+        <v>403</v>
+      </c>
+      <c r="I3" s="304"/>
       <c r="J3" s="39"/>
       <c r="K3" s="33"/>
       <c r="L3" s="32"/>
@@ -11509,11 +11522,11 @@
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -11523,88 +11536,88 @@
       <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="306" t="s">
+      <c r="A5" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="309" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" s="284" t="s">
+      <c r="B5" s="310" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="309" t="s">
-        <v>254</v>
-      </c>
-      <c r="H5" s="294" t="s">
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="310" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" s="295" t="s">
+        <v>262</v>
+      </c>
+      <c r="I5" s="297"/>
+      <c r="J5" s="295" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" s="296"/>
+      <c r="L5" s="297"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="308"/>
+      <c r="B6" s="311"/>
+      <c r="C6" s="289" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="289" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="290"/>
+      <c r="F6" s="291"/>
+      <c r="G6" s="311"/>
+      <c r="H6" s="298"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="298"/>
+      <c r="K6" s="299"/>
+      <c r="L6" s="300"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="308"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="313"/>
+      <c r="D7" s="287" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="I5" s="296"/>
-      <c r="J5" s="294" t="s">
-        <v>282</v>
-      </c>
-      <c r="K5" s="295"/>
-      <c r="L5" s="296"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="307"/>
-      <c r="B6" s="310"/>
-      <c r="C6" s="288" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="288" t="s">
-        <v>208</v>
-      </c>
-      <c r="E6" s="289"/>
-      <c r="F6" s="290"/>
-      <c r="G6" s="310"/>
-      <c r="H6" s="297"/>
-      <c r="I6" s="299"/>
-      <c r="J6" s="297"/>
-      <c r="K6" s="298"/>
-      <c r="L6" s="299"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="307"/>
-      <c r="B7" s="310"/>
-      <c r="C7" s="312"/>
-      <c r="D7" s="286" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="314" t="s">
-        <v>264</v>
-      </c>
-      <c r="F7" s="314"/>
-      <c r="G7" s="310"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="302"/>
-      <c r="J7" s="300"/>
-      <c r="K7" s="301"/>
-      <c r="L7" s="302"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="311"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="301"/>
+      <c r="K7" s="302"/>
+      <c r="L7" s="303"/>
     </row>
     <row r="8" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="308"/>
-      <c r="B8" s="311"/>
-      <c r="C8" s="313"/>
-      <c r="D8" s="287"/>
+      <c r="A8" s="309"/>
+      <c r="B8" s="312"/>
+      <c r="C8" s="314"/>
+      <c r="D8" s="288"/>
       <c r="E8" s="19"/>
       <c r="F8" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" s="312"/>
+      <c r="H8" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="G8" s="311"/>
-      <c r="H8" s="48" t="s">
-        <v>266</v>
-      </c>
       <c r="I8" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J8" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K8" s="36" t="s">
         <v>273</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>274</v>
       </c>
       <c r="L8" s="34" t="s">
         <v>171</v>
@@ -11908,7 +11921,7 @@
     <row r="24" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -11924,102 +11937,102 @@
     <row r="25" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="292"/>
-      <c r="E25" s="292"/>
-      <c r="F25" s="292"/>
-      <c r="G25" s="292"/>
-      <c r="H25" s="292"/>
-      <c r="I25" s="292"/>
-      <c r="J25" s="292"/>
-      <c r="K25" s="292"/>
-      <c r="L25" s="293"/>
+        <v>252</v>
+      </c>
+      <c r="C25" s="292"/>
+      <c r="D25" s="293"/>
+      <c r="E25" s="293"/>
+      <c r="F25" s="293"/>
+      <c r="G25" s="293"/>
+      <c r="H25" s="293"/>
+      <c r="I25" s="293"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="294"/>
     </row>
     <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="304" t="s">
+      <c r="A27" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="304"/>
-      <c r="C27" s="305"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="305"/>
-      <c r="F27" s="305"/>
-      <c r="G27" s="305"/>
-      <c r="H27" s="305"/>
-      <c r="I27" s="305"/>
-      <c r="J27" s="305"/>
+      <c r="B27" s="305"/>
+      <c r="C27" s="306"/>
+      <c r="D27" s="306"/>
+      <c r="E27" s="306"/>
+      <c r="F27" s="306"/>
+      <c r="G27" s="306"/>
+      <c r="H27" s="306"/>
+      <c r="I27" s="306"/>
+      <c r="J27" s="306"/>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D28" s="280"/>
-      <c r="E28" s="280"/>
-      <c r="F28" s="278"/>
-      <c r="G28" s="278"/>
+      <c r="C28" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="281"/>
+      <c r="E28" s="281"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
       <c r="H28" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="281"/>
-      <c r="J28" s="281"/>
+      <c r="I28" s="282"/>
+      <c r="J28" s="282"/>
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="47"/>
-      <c r="C29" s="279"/>
-      <c r="D29" s="279"/>
-      <c r="E29" s="279"/>
-      <c r="F29" s="279"/>
-      <c r="G29" s="279"/>
-      <c r="H29" s="279"/>
-      <c r="I29" s="279"/>
-      <c r="J29" s="279"/>
+      <c r="C29" s="280"/>
+      <c r="D29" s="280"/>
+      <c r="E29" s="280"/>
+      <c r="F29" s="280"/>
+      <c r="G29" s="280"/>
+      <c r="H29" s="280"/>
+      <c r="I29" s="280"/>
+      <c r="J29" s="280"/>
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D30" s="280"/>
-      <c r="E30" s="280"/>
-      <c r="F30" s="278"/>
-      <c r="G30" s="278"/>
+      <c r="C30" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="281"/>
+      <c r="E30" s="281"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
       <c r="H30" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="281"/>
-      <c r="J30" s="281"/>
+      <c r="I30" s="282"/>
+      <c r="J30" s="282"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C33" s="186">
         <v>5</v>
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F33" s="175">
         <v>10</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="H33" s="303" t="s">
-        <v>404</v>
-      </c>
-      <c r="I33" s="303"/>
+        <v>279</v>
+      </c>
+      <c r="H33" s="304" t="s">
+        <v>403</v>
+      </c>
+      <c r="I33" s="304"/>
       <c r="J33" s="39"/>
       <c r="K33" s="33"/>
       <c r="L33" s="32"/>
@@ -12031,11 +12044,11 @@
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G34" s="21"/>
       <c r="H34" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -12045,88 +12058,88 @@
       <c r="N34" s="42"/>
     </row>
     <row r="35" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="306" t="s">
+      <c r="A35" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="309" t="s">
-        <v>279</v>
-      </c>
-      <c r="C35" s="284" t="s">
+      <c r="B35" s="310" t="s">
+        <v>278</v>
+      </c>
+      <c r="C35" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D35" s="284"/>
-      <c r="E35" s="284"/>
-      <c r="F35" s="285"/>
-      <c r="G35" s="309" t="s">
-        <v>254</v>
-      </c>
-      <c r="H35" s="294" t="s">
+      <c r="D35" s="285"/>
+      <c r="E35" s="285"/>
+      <c r="F35" s="286"/>
+      <c r="G35" s="310" t="s">
+        <v>253</v>
+      </c>
+      <c r="H35" s="295" t="s">
+        <v>262</v>
+      </c>
+      <c r="I35" s="297"/>
+      <c r="J35" s="295" t="s">
+        <v>281</v>
+      </c>
+      <c r="K35" s="296"/>
+      <c r="L35" s="297"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="308"/>
+      <c r="B36" s="311"/>
+      <c r="C36" s="289" t="s">
+        <v>275</v>
+      </c>
+      <c r="D36" s="289" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="290"/>
+      <c r="F36" s="291"/>
+      <c r="G36" s="311"/>
+      <c r="H36" s="298"/>
+      <c r="I36" s="300"/>
+      <c r="J36" s="298"/>
+      <c r="K36" s="299"/>
+      <c r="L36" s="300"/>
+    </row>
+    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="308"/>
+      <c r="B37" s="311"/>
+      <c r="C37" s="313"/>
+      <c r="D37" s="287" t="s">
+        <v>248</v>
+      </c>
+      <c r="E37" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="I35" s="296"/>
-      <c r="J35" s="294" t="s">
-        <v>282</v>
-      </c>
-      <c r="K35" s="295"/>
-      <c r="L35" s="296"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="307"/>
-      <c r="B36" s="310"/>
-      <c r="C36" s="288" t="s">
-        <v>276</v>
-      </c>
-      <c r="D36" s="288" t="s">
-        <v>208</v>
-      </c>
-      <c r="E36" s="289"/>
-      <c r="F36" s="290"/>
-      <c r="G36" s="310"/>
-      <c r="H36" s="297"/>
-      <c r="I36" s="299"/>
-      <c r="J36" s="297"/>
-      <c r="K36" s="298"/>
-      <c r="L36" s="299"/>
-    </row>
-    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="307"/>
-      <c r="B37" s="310"/>
-      <c r="C37" s="312"/>
-      <c r="D37" s="286" t="s">
-        <v>249</v>
-      </c>
-      <c r="E37" s="314" t="s">
-        <v>264</v>
-      </c>
-      <c r="F37" s="314"/>
-      <c r="G37" s="310"/>
-      <c r="H37" s="300"/>
-      <c r="I37" s="302"/>
-      <c r="J37" s="300"/>
-      <c r="K37" s="301"/>
-      <c r="L37" s="302"/>
+      <c r="F37" s="315"/>
+      <c r="G37" s="311"/>
+      <c r="H37" s="301"/>
+      <c r="I37" s="303"/>
+      <c r="J37" s="301"/>
+      <c r="K37" s="302"/>
+      <c r="L37" s="303"/>
     </row>
     <row r="38" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="308"/>
-      <c r="B38" s="311"/>
-      <c r="C38" s="313"/>
-      <c r="D38" s="287"/>
+      <c r="A38" s="309"/>
+      <c r="B38" s="312"/>
+      <c r="C38" s="314"/>
+      <c r="D38" s="288"/>
       <c r="E38" s="19"/>
       <c r="F38" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" s="312"/>
+      <c r="H38" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="G38" s="311"/>
-      <c r="H38" s="48" t="s">
-        <v>266</v>
-      </c>
       <c r="I38" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J38" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K38" s="36" t="s">
         <v>273</v>
-      </c>
-      <c r="K38" s="36" t="s">
-        <v>274</v>
       </c>
       <c r="L38" s="34" t="s">
         <v>171</v>
@@ -12430,7 +12443,7 @@
     <row r="54" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="22"/>
       <c r="B54" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="20"/>
@@ -12446,94 +12459,94 @@
     <row r="55" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
       <c r="B55" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="291"/>
-      <c r="D55" s="292"/>
-      <c r="E55" s="292"/>
-      <c r="F55" s="292"/>
-      <c r="G55" s="292"/>
-      <c r="H55" s="292"/>
-      <c r="I55" s="292"/>
-      <c r="J55" s="292"/>
-      <c r="K55" s="292"/>
-      <c r="L55" s="293"/>
+        <v>252</v>
+      </c>
+      <c r="C55" s="292"/>
+      <c r="D55" s="293"/>
+      <c r="E55" s="293"/>
+      <c r="F55" s="293"/>
+      <c r="G55" s="293"/>
+      <c r="H55" s="293"/>
+      <c r="I55" s="293"/>
+      <c r="J55" s="293"/>
+      <c r="K55" s="293"/>
+      <c r="L55" s="294"/>
     </row>
     <row r="57" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="304" t="s">
+      <c r="A57" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B57" s="304"/>
-      <c r="C57" s="305"/>
-      <c r="D57" s="305"/>
-      <c r="E57" s="305"/>
-      <c r="F57" s="305"/>
-      <c r="G57" s="305"/>
-      <c r="H57" s="305"/>
-      <c r="I57" s="305"/>
-      <c r="J57" s="305"/>
+      <c r="B57" s="305"/>
+      <c r="C57" s="306"/>
+      <c r="D57" s="306"/>
+      <c r="E57" s="306"/>
+      <c r="F57" s="306"/>
+      <c r="G57" s="306"/>
+      <c r="H57" s="306"/>
+      <c r="I57" s="306"/>
+      <c r="J57" s="306"/>
     </row>
     <row r="58" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
-      <c r="C58" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D58" s="280"/>
-      <c r="E58" s="280"/>
-      <c r="F58" s="278"/>
-      <c r="G58" s="278"/>
+      <c r="C58" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" s="281"/>
+      <c r="E58" s="281"/>
+      <c r="F58" s="279"/>
+      <c r="G58" s="279"/>
       <c r="H58" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I58" s="281"/>
-      <c r="J58" s="281"/>
+      <c r="I58" s="282"/>
+      <c r="J58" s="282"/>
     </row>
     <row r="59" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B59" s="47"/>
-      <c r="C59" s="279"/>
-      <c r="D59" s="279"/>
-      <c r="E59" s="279"/>
-      <c r="F59" s="279"/>
-      <c r="G59" s="279"/>
-      <c r="H59" s="279"/>
-      <c r="I59" s="279"/>
-      <c r="J59" s="279"/>
+      <c r="C59" s="280"/>
+      <c r="D59" s="280"/>
+      <c r="E59" s="280"/>
+      <c r="F59" s="280"/>
+      <c r="G59" s="280"/>
+      <c r="H59" s="280"/>
+      <c r="I59" s="280"/>
+      <c r="J59" s="280"/>
     </row>
     <row r="60" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
-      <c r="C60" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D60" s="280"/>
-      <c r="E60" s="280"/>
-      <c r="F60" s="278"/>
-      <c r="G60" s="278"/>
+      <c r="C60" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D60" s="281"/>
+      <c r="E60" s="281"/>
+      <c r="F60" s="279"/>
+      <c r="G60" s="279"/>
       <c r="H60" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I60" s="281"/>
-      <c r="J60" s="281"/>
+      <c r="I60" s="282"/>
+      <c r="J60" s="282"/>
     </row>
     <row r="61" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B61" s="46"/>
       <c r="C61" s="46"/>
-      <c r="D61" s="278"/>
-      <c r="E61" s="278"/>
-      <c r="F61" s="278"/>
-      <c r="G61" s="278"/>
+      <c r="D61" s="279"/>
+      <c r="E61" s="279"/>
+      <c r="F61" s="279"/>
+      <c r="G61" s="279"/>
       <c r="H61" s="141" t="s">
         <v>171</v>
       </c>
-      <c r="I61" s="282"/>
-      <c r="J61" s="282"/>
+      <c r="I61" s="283"/>
+      <c r="J61" s="283"/>
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="1:14" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -12552,7 +12565,7 @@
     </row>
     <row r="63" spans="1:14" s="23" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="130" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B63" s="130"/>
       <c r="C63" s="135"/>
@@ -12580,7 +12593,7 @@
     </row>
     <row r="65" spans="1:14" s="66" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A65" s="136" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B65" s="136"/>
       <c r="C65" s="136"/>
@@ -12598,7 +12611,7 @@
     </row>
     <row r="66" spans="1:14" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="140" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B66" s="140"/>
       <c r="C66" s="64"/>
@@ -12608,7 +12621,7 @@
         <v>180</v>
       </c>
       <c r="H66" s="140" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I66" s="176"/>
       <c r="J66" s="130"/>
@@ -12616,7 +12629,7 @@
     <row r="67" spans="1:14" s="66" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A67" s="27"/>
       <c r="B67" s="139" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -12738,40 +12751,40 @@
   <sheetData>
     <row r="1" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="137" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B1" s="137"/>
       <c r="C1" s="137"/>
       <c r="D1" s="137"/>
       <c r="E1" s="137"/>
-      <c r="F1" s="277">
+      <c r="F1" s="278">
         <f>ОбщСведения!B3</f>
         <v>0</v>
       </c>
-      <c r="G1" s="277"/>
+      <c r="G1" s="278"/>
       <c r="H1" s="182"/>
       <c r="I1" s="179">
         <f>ОбщСведения!B4</f>
         <v>0</v>
       </c>
-      <c r="J1" s="277">
+      <c r="J1" s="278">
         <f>ОбщСведения!B5</f>
         <v>0</v>
       </c>
-      <c r="K1" s="277"/>
-      <c r="L1" s="277"/>
+      <c r="K1" s="278"/>
+      <c r="L1" s="278"/>
       <c r="M1"/>
       <c r="N1"/>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="283" t="s">
-        <v>389</v>
-      </c>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
+      <c r="B2" s="284" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -12779,25 +12792,25 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="30"/>
       <c r="B3" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" s="186">
         <v>6</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F3" s="175">
         <v>11</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="H3" s="303" t="s">
-        <v>404</v>
-      </c>
-      <c r="I3" s="303"/>
+        <v>279</v>
+      </c>
+      <c r="H3" s="304" t="s">
+        <v>403</v>
+      </c>
+      <c r="I3" s="304"/>
       <c r="J3" s="39"/>
       <c r="K3" s="33"/>
       <c r="L3" s="32"/>
@@ -12809,11 +12822,11 @@
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
@@ -12823,88 +12836,88 @@
       <c r="N4" s="42"/>
     </row>
     <row r="5" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="306" t="s">
+      <c r="A5" s="307" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="309" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" s="284" t="s">
+      <c r="B5" s="310" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="309" t="s">
-        <v>254</v>
-      </c>
-      <c r="H5" s="294" t="s">
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="310" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" s="295" t="s">
+        <v>262</v>
+      </c>
+      <c r="I5" s="297"/>
+      <c r="J5" s="295" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" s="296"/>
+      <c r="L5" s="297"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="308"/>
+      <c r="B6" s="311"/>
+      <c r="C6" s="289" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="289" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="290"/>
+      <c r="F6" s="291"/>
+      <c r="G6" s="311"/>
+      <c r="H6" s="298"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="298"/>
+      <c r="K6" s="299"/>
+      <c r="L6" s="300"/>
+    </row>
+    <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="308"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="313"/>
+      <c r="D7" s="287" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="I5" s="296"/>
-      <c r="J5" s="294" t="s">
-        <v>282</v>
-      </c>
-      <c r="K5" s="295"/>
-      <c r="L5" s="296"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="307"/>
-      <c r="B6" s="310"/>
-      <c r="C6" s="288" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="288" t="s">
-        <v>208</v>
-      </c>
-      <c r="E6" s="289"/>
-      <c r="F6" s="290"/>
-      <c r="G6" s="310"/>
-      <c r="H6" s="297"/>
-      <c r="I6" s="299"/>
-      <c r="J6" s="297"/>
-      <c r="K6" s="298"/>
-      <c r="L6" s="299"/>
-    </row>
-    <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="307"/>
-      <c r="B7" s="310"/>
-      <c r="C7" s="312"/>
-      <c r="D7" s="286" t="s">
-        <v>249</v>
-      </c>
-      <c r="E7" s="314" t="s">
-        <v>264</v>
-      </c>
-      <c r="F7" s="314"/>
-      <c r="G7" s="310"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="302"/>
-      <c r="J7" s="300"/>
-      <c r="K7" s="301"/>
-      <c r="L7" s="302"/>
+      <c r="F7" s="315"/>
+      <c r="G7" s="311"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="303"/>
+      <c r="J7" s="301"/>
+      <c r="K7" s="302"/>
+      <c r="L7" s="303"/>
     </row>
     <row r="8" spans="1:14" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="308"/>
-      <c r="B8" s="311"/>
-      <c r="C8" s="313"/>
-      <c r="D8" s="287"/>
+      <c r="A8" s="309"/>
+      <c r="B8" s="312"/>
+      <c r="C8" s="314"/>
+      <c r="D8" s="288"/>
       <c r="E8" s="19"/>
       <c r="F8" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" s="312"/>
+      <c r="H8" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="G8" s="311"/>
-      <c r="H8" s="48" t="s">
-        <v>266</v>
-      </c>
       <c r="I8" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J8" s="34" t="s">
+        <v>272</v>
+      </c>
+      <c r="K8" s="36" t="s">
         <v>273</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>274</v>
       </c>
       <c r="L8" s="34" t="s">
         <v>171</v>
@@ -13208,7 +13221,7 @@
     <row r="24" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="22"/>
       <c r="B24" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
@@ -13224,83 +13237,83 @@
     <row r="25" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C25" s="291"/>
-      <c r="D25" s="292"/>
-      <c r="E25" s="292"/>
-      <c r="F25" s="292"/>
-      <c r="G25" s="292"/>
-      <c r="H25" s="292"/>
-      <c r="I25" s="292"/>
-      <c r="J25" s="292"/>
-      <c r="K25" s="292"/>
-      <c r="L25" s="293"/>
+        <v>252</v>
+      </c>
+      <c r="C25" s="292"/>
+      <c r="D25" s="293"/>
+      <c r="E25" s="293"/>
+      <c r="F25" s="293"/>
+      <c r="G25" s="293"/>
+      <c r="H25" s="293"/>
+      <c r="I25" s="293"/>
+      <c r="J25" s="293"/>
+      <c r="K25" s="293"/>
+      <c r="L25" s="294"/>
     </row>
     <row r="26" spans="1:14" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="304" t="s">
+      <c r="A27" s="305" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="304"/>
-      <c r="C27" s="305"/>
-      <c r="D27" s="305"/>
-      <c r="E27" s="305"/>
-      <c r="F27" s="305"/>
-      <c r="G27" s="305"/>
-      <c r="H27" s="305"/>
-      <c r="I27" s="305"/>
-      <c r="J27" s="305"/>
+      <c r="B27" s="305"/>
+      <c r="C27" s="306"/>
+      <c r="D27" s="306"/>
+      <c r="E27" s="306"/>
+      <c r="F27" s="306"/>
+      <c r="G27" s="306"/>
+      <c r="H27" s="306"/>
+      <c r="I27" s="306"/>
+      <c r="J27" s="306"/>
     </row>
     <row r="28" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D28" s="280"/>
-      <c r="E28" s="280"/>
-      <c r="F28" s="278"/>
-      <c r="G28" s="278"/>
+      <c r="C28" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="281"/>
+      <c r="E28" s="281"/>
+      <c r="F28" s="279"/>
+      <c r="G28" s="279"/>
       <c r="H28" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I28" s="281"/>
-      <c r="J28" s="281"/>
+      <c r="I28" s="282"/>
+      <c r="J28" s="282"/>
     </row>
     <row r="29" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>204</v>
       </c>
       <c r="B29" s="47"/>
-      <c r="C29" s="279"/>
-      <c r="D29" s="279"/>
-      <c r="E29" s="279"/>
-      <c r="F29" s="279"/>
-      <c r="G29" s="279"/>
-      <c r="H29" s="279"/>
-      <c r="I29" s="279"/>
-      <c r="J29" s="279"/>
+      <c r="C29" s="280"/>
+      <c r="D29" s="280"/>
+      <c r="E29" s="280"/>
+      <c r="F29" s="280"/>
+      <c r="G29" s="280"/>
+      <c r="H29" s="280"/>
+      <c r="I29" s="280"/>
+      <c r="J29" s="280"/>
     </row>
     <row r="30" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="280" t="s">
-        <v>245</v>
-      </c>
-      <c r="D30" s="280"/>
-      <c r="E30" s="280"/>
-      <c r="F30" s="278"/>
-      <c r="G30" s="278"/>
+      <c r="C30" s="281" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="281"/>
+      <c r="E30" s="281"/>
+      <c r="F30" s="279"/>
+      <c r="G30" s="279"/>
       <c r="H30" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="I30" s="281"/>
-      <c r="J30" s="281"/>
+      <c r="I30" s="282"/>
+      <c r="J30" s="282"/>
     </row>
     <row r="32" spans="1:14" s="23" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="130" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B32" s="130"/>
       <c r="C32" s="135"/>
@@ -13328,7 +13341,7 @@
     </row>
     <row r="34" spans="1:14" s="66" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A34" s="136" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B34" s="136"/>
       <c r="C34" s="136"/>
@@ -13346,7 +13359,7 @@
     </row>
     <row r="35" spans="1:14" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="140" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35" s="140"/>
       <c r="C35" s="64"/>
@@ -13356,7 +13369,7 @@
         <v>180</v>
       </c>
       <c r="H35" s="140" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I35" s="176"/>
       <c r="J35" s="130"/>
@@ -13364,7 +13377,7 @@
     <row r="36" spans="1:14" s="66" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A36" s="27"/>
       <c r="B36" s="139" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -13575,7 +13588,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="81" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>58</v>
@@ -13599,7 +13612,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>61</v>
@@ -13610,7 +13623,7 @@
         <v>62</v>
       </c>
       <c r="F23" s="78" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -13642,7 +13655,7 @@
         <v>66</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -13666,7 +13679,7 @@
         <v>69</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -13714,16 +13727,16 @@
         <v>88</v>
       </c>
       <c r="D37" s="78" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G37" s="78" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P37" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -13734,7 +13747,7 @@
         <v>165</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>172</v>
@@ -13751,10 +13764,10 @@
         <v>166</v>
       </c>
       <c r="G39" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="J39" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="P39" s="75" t="s">
         <v>37</v>
@@ -13771,20 +13784,20 @@
         <v>170</v>
       </c>
       <c r="P40" s="75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D41" s="83" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P41" s="75" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
@@ -14149,14 +14162,14 @@
     </row>
     <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="D116" s="78" t="s">
         <v>286</v>
-      </c>
-      <c r="D116" s="78" t="s">
-        <v>287</v>
       </c>
       <c r="H116" s="72"/>
       <c r="I116" s="114" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J116" s="72"/>
       <c r="K116" s="72"/>
@@ -14169,7 +14182,7 @@
         <v>191</v>
       </c>
       <c r="I117" s="154" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14180,7 +14193,7 @@
         <v>190</v>
       </c>
       <c r="I118" s="154" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14191,7 +14204,7 @@
         <v>192</v>
       </c>
       <c r="I119" s="154" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -14255,7 +14268,7 @@
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
@@ -14283,47 +14296,47 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" s="45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -14338,7 +14351,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -14368,23 +14381,23 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B159" s="79" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="78" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C162" s="78" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="83" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C163" s="77">
         <v>2</v>
@@ -14392,7 +14405,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="83" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C164" s="77">
         <v>4</v>
@@ -14400,7 +14413,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="83" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C165" s="77">
         <v>5</v>
@@ -14408,7 +14421,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="83" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C166" s="77">
         <v>5.5</v>
@@ -14416,7 +14429,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="83" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C167" s="77">
         <v>3</v>
@@ -14424,7 +14437,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="83" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C168" s="77">
         <v>6</v>
@@ -14432,83 +14445,83 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="83" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="83" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="84" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C172" s="78" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G172" s="78" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="83" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C173" s="92" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G173" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="83" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G174" s="79" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G175" s="79" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G176" s="79" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G177" s="79" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="83" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G178" s="79" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="83" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="83" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
@@ -14516,87 +14529,87 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="80" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="81" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="80" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="80" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="80" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="78" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="85" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B204" s="86"/>
       <c r="C204" s="86"/>
@@ -14605,7 +14618,7 @@
     </row>
     <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="85" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B205" s="86"/>
       <c r="C205" s="86"/>
@@ -14614,7 +14627,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B206" s="86"/>
       <c r="C206" s="86"/>
@@ -14623,7 +14636,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="85" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B207" s="86"/>
       <c r="C207" s="86"/>
@@ -14632,7 +14645,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="85" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B208" s="86"/>
       <c r="C208" s="86"/>
@@ -14641,7 +14654,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B209" s="86"/>
       <c r="C209" s="86"/>
@@ -14650,17 +14663,17 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="77" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="77" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="85" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B212" s="86"/>
       <c r="C212" s="86"/>
@@ -14669,7 +14682,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B213" s="86"/>
       <c r="C213" s="86"/>
@@ -14678,7 +14691,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -14688,221 +14701,221 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="78" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="77" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="77" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="77" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="76" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="76" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="151" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="85" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="85" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="78" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D230" s="78" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="183" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D231" s="184" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A232" s="183" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D232" s="185" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A233" s="183" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D233" s="185" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A234" s="183" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D234" s="185" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A235" s="183" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D235" s="185" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A236" s="183" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D236" s="185" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A237" s="183" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D237" s="185" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A238" s="183" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D238" s="185" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="27" x14ac:dyDescent="0.3">
       <c r="A239" s="183" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D239" s="185" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A240" s="183" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D240" s="185" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A241" s="183" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D241" s="75"/>
     </row>
     <row r="242" spans="1:4" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A242" s="183" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="183" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A244" s="183" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A245" s="183" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A246" s="183" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A247" s="183" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="189" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="79" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="79" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="79" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="79" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="79" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="79" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
